--- a/finalLabels.xlsx
+++ b/finalLabels.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2120" uniqueCount="451">
   <si>
     <t>A4D5</t>
   </si>
@@ -1395,7 +1395,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="725">
+  <borders count="889">
     <border>
       <left/>
       <right/>
@@ -2127,11 +2127,175 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="725">
+  <cellXfs count="889">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -2857,6 +3021,170 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="722" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="723" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="724" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="725" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="726" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="727" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="728" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="729" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="730" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="731" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="732" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="733" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="734" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="735" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="736" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="737" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="738" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="739" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="740" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="741" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="742" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="743" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="744" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="745" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="746" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="747" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="748" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="749" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="750" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="751" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="752" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="753" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="754" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="755" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="756" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="757" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="758" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="759" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="760" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="761" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="762" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="763" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="764" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="765" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="766" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="767" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="768" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="769" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="770" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="771" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="772" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="773" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="774" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="775" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="776" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="777" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="778" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="779" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="780" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="781" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="782" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="783" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="784" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="785" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="786" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="787" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="788" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="789" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="790" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="791" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="792" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="793" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="794" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="795" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="796" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="797" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="798" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="799" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="800" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="801" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="802" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="803" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="804" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="805" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="806" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="807" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="808" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="809" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="810" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="811" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="812" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="813" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="814" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="815" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="816" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="817" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="818" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="819" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="820" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="821" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="822" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="823" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="824" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="825" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="826" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="827" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="828" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="829" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="830" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="831" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="832" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="833" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="834" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="835" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="836" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="837" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="838" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="839" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="840" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="841" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="842" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="843" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="844" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="845" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="846" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="847" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="848" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="849" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="850" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="851" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="852" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="853" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="854" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="855" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="856" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="857" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="858" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="859" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="860" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="861" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="862" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="863" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="864" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="865" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="866" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="867" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="868" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="869" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="870" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="871" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="872" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="873" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="874" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="875" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="876" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="877" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="878" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="879" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="880" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="881" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="882" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="883" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="884" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="885" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="886" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="887" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="888" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -59023,52 +59351,52 @@
       <c r="A1" s="365" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="607" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="613" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="619" t="s">
+      <c r="B1" s="793" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="799" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="805" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="625" t="s">
+      <c r="E1" s="811" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="631" t="s">
+      <c r="F1" s="817" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="637" t="s">
+      <c r="G1" s="823" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="643" t="s">
+      <c r="H1" s="829" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="649" t="s">
+      <c r="I1" s="835" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="655" t="s">
+      <c r="J1" s="841" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="661" t="s">
+      <c r="K1" s="847" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="667" t="s">
+      <c r="L1" s="853" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="673" t="s">
+      <c r="M1" s="859" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="679" t="s">
+      <c r="N1" s="865" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="685" t="s">
+      <c r="O1" s="871" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="691" t="s">
+      <c r="P1" s="877" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="697" t="s">
+      <c r="Q1" s="883" t="s">
         <v>15</v>
       </c>
       <c r="R1" s="703" t="s">
@@ -59584,7 +59912,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -59661,7 +59989,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -59880,7 +60208,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -60046,7 +60374,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -60419,7 +60747,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -61112,7 +61440,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -65039,7 +65367,7 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -66514,7 +66842,7 @@
         <v>0</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98">
         <v>1</v>
@@ -66591,7 +66919,7 @@
         <v>0</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99">
         <v>1</v>
@@ -66668,7 +66996,7 @@
         <v>0</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100">
         <v>1</v>
@@ -66745,7 +67073,7 @@
         <v>0</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101">
         <v>1</v>
@@ -66899,7 +67227,7 @@
         <v>0</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103">
         <v>1</v>
@@ -66976,7 +67304,7 @@
         <v>0</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104">
         <v>1</v>
@@ -67053,7 +67381,7 @@
         <v>0</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -67130,7 +67458,7 @@
         <v>0</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106">
         <v>1</v>
@@ -67207,7 +67535,7 @@
         <v>0</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107">
         <v>1</v>
@@ -74844,52 +75172,52 @@
       <c r="A1" s="363" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="609" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="615" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="621" t="s">
+      <c r="B1" s="795" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="801" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="807" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="627" t="s">
+      <c r="E1" s="813" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="633" t="s">
+      <c r="F1" s="819" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="639" t="s">
+      <c r="G1" s="825" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="645" t="s">
+      <c r="H1" s="831" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="651" t="s">
+      <c r="I1" s="837" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="657" t="s">
+      <c r="J1" s="843" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="663" t="s">
+      <c r="K1" s="849" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="669" t="s">
+      <c r="L1" s="855" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="675" t="s">
+      <c r="M1" s="861" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="681" t="s">
+      <c r="N1" s="867" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="687" t="s">
+      <c r="O1" s="873" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="693" t="s">
+      <c r="P1" s="879" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="699" t="s">
+      <c r="Q1" s="885" t="s">
         <v>15</v>
       </c>
       <c r="R1" s="705" t="s">
@@ -90665,55 +90993,55 @@
       <c r="A1" s="361" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="605" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="611" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="617" t="s">
+      <c r="B1" s="791" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="797" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="803" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="623" t="s">
+      <c r="E1" s="809" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="629" t="s">
+      <c r="F1" s="815" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="635" t="s">
+      <c r="G1" s="821" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="641" t="s">
+      <c r="H1" s="827" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="647" t="s">
+      <c r="I1" s="833" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="653" t="s">
+      <c r="J1" s="839" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="659" t="s">
+      <c r="K1" s="845" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="665" t="s">
+      <c r="L1" s="851" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="671" t="s">
+      <c r="M1" s="857" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="677" t="s">
+      <c r="N1" s="863" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="683" t="s">
+      <c r="O1" s="869" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="689" t="s">
+      <c r="P1" s="875" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="695" t="s">
+      <c r="Q1" s="881" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="701" t="s">
+      <c r="R1" s="887" t="s">
         <v>16</v>
       </c>
       <c r="S1" s="707" t="s">

--- a/finalLabels.xlsx
+++ b/finalLabels.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2120" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3111" uniqueCount="451">
   <si>
     <t>A4D5</t>
   </si>
@@ -1395,7 +1395,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="889">
+  <borders count="1191">
     <border>
       <left/>
       <right/>
@@ -2291,11 +2291,313 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="889">
+  <cellXfs count="1191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -3185,6 +3487,308 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="886" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="887" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="888" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="889" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="890" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="891" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="892" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="893" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="894" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="895" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="896" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="897" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="898" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="899" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="900" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="901" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="902" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="903" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="904" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="905" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="906" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="907" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="908" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="909" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="910" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="911" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="912" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="913" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="914" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="915" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="916" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="917" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="918" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="919" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="920" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="921" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="922" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="923" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="924" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="925" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="926" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="927" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="928" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="929" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="930" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="931" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="932" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="933" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="934" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="935" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="936" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="937" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="938" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="939" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="940" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="941" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="942" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="943" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="944" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="945" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="946" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="947" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="948" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="949" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="950" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="951" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="952" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="953" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="954" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="955" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="956" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="957" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="958" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="959" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="960" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="961" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="962" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="963" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="964" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="965" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="966" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="967" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="968" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="969" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="970" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="971" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="972" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="973" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="974" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="975" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="976" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="977" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="978" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="979" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="980" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="981" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="982" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="983" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="984" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="985" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="986" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="987" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="988" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="989" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="990" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="991" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="992" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="993" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="994" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="995" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="996" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="997" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="998" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="999" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1000" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1001" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1002" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1003" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1004" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1005" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1006" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1007" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1008" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1009" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1010" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1011" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1012" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1013" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1014" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1015" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1016" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1017" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1018" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1019" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1020" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1021" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1022" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1023" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1024" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1025" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1026" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1027" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1028" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1029" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1030" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1031" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1032" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1033" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1034" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1035" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1036" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1037" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1038" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1039" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1040" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1041" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1042" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1043" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1044" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1045" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1046" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1047" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1048" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1049" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1050" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1051" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1052" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1053" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1054" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1055" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1056" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1057" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1058" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1059" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1060" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1061" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1062" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1063" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1064" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1065" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1066" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1067" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1068" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1069" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1070" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1071" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1072" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1073" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1074" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1075" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1076" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1077" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1078" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1079" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1080" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1081" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1082" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1083" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1084" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1085" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1086" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1087" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1088" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1089" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1090" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1091" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1092" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1093" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1094" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1095" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1096" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1097" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1098" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1099" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1100" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1101" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1102" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1103" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1104" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1105" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1106" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1107" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1108" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1109" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1110" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1111" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1112" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1113" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1114" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1115" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1116" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1117" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1118" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1119" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1120" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1121" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1122" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1123" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1124" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1125" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1126" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1127" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1128" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1129" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1130" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1131" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1132" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1133" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1134" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1135" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1136" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1137" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1138" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1139" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1140" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1141" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1142" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1143" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1144" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1145" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1146" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1147" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1148" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1149" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1150" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1151" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1152" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1153" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1154" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1155" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1156" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1157" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1158" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1159" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1160" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1161" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1162" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1163" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1164" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1165" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1166" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1167" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1168" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1169" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1170" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1171" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1172" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1173" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1174" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1175" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1176" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1177" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1178" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1179" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1180" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1181" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1182" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1183" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1184" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1185" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1186" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1187" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1188" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1189" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1190" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3225,84 +3829,84 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="547" t="s">
+      <c r="A1" s="1133" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="425" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="431" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="437" t="s">
+      <c r="B1" s="1011" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1017" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1023" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="443" t="s">
+      <c r="E1" s="1029" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="449" t="s">
+      <c r="F1" s="1035" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="455" t="s">
+      <c r="G1" s="1041" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="461" t="s">
+      <c r="H1" s="1047" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="467" t="s">
+      <c r="I1" s="1053" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="473" t="s">
+      <c r="J1" s="1059" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="479" t="s">
+      <c r="K1" s="1065" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="485" t="s">
+      <c r="L1" s="1071" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="491" t="s">
+      <c r="M1" s="1077" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="497" t="s">
+      <c r="N1" s="1083" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="503" t="s">
+      <c r="O1" s="1089" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="509" t="s">
+      <c r="P1" s="1095" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="515" t="s">
+      <c r="Q1" s="1101" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="521" t="s">
+      <c r="R1" s="1107" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="527" t="s">
+      <c r="S1" s="1113" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="533" t="s">
+      <c r="T1" s="1119" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="539" t="s">
+      <c r="U1" s="1125" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="553" t="s">
+      <c r="V1" s="1139" t="s">
         <v>225</v>
       </c>
-      <c r="W1" s="559" t="s">
+      <c r="W1" s="1145" t="s">
         <v>226</v>
       </c>
-      <c r="X1" s="565" t="s">
+      <c r="X1" s="1151" t="s">
         <v>227</v>
       </c>
-      <c r="Y1" s="571" t="s">
+      <c r="Y1" s="1157" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="547" t="s">
+      <c r="A2" s="1133" t="s">
         <v>246</v>
       </c>
       <c r="B2">
@@ -3379,7 +3983,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="547" t="s">
+      <c r="A3" s="1133" t="s">
         <v>247</v>
       </c>
       <c r="B3">
@@ -3456,7 +4060,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="547" t="s">
+      <c r="A4" s="1133" t="s">
         <v>248</v>
       </c>
       <c r="B4">
@@ -3533,7 +4137,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="547" t="s">
+      <c r="A5" s="1133" t="s">
         <v>249</v>
       </c>
       <c r="B5">
@@ -3546,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -3597,10 +4201,10 @@
         <v>1</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -3610,7 +4214,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="547" t="s">
+      <c r="A6" s="1133" t="s">
         <v>250</v>
       </c>
       <c r="B6">
@@ -3687,7 +4291,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="547" t="s">
+      <c r="A7" s="1133" t="s">
         <v>251</v>
       </c>
       <c r="B7">
@@ -3764,7 +4368,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="547" t="s">
+      <c r="A8" s="1133" t="s">
         <v>252</v>
       </c>
       <c r="B8">
@@ -3841,7 +4445,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="547" t="s">
+      <c r="A9" s="1133" t="s">
         <v>253</v>
       </c>
       <c r="B9">
@@ -3918,7 +4522,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="547" t="s">
+      <c r="A10" s="1133" t="s">
         <v>254</v>
       </c>
       <c r="B10">
@@ -3970,7 +4574,7 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10">
         <v>1</v>
@@ -3995,7 +4599,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="547" t="s">
+      <c r="A11" s="1133" t="s">
         <v>255</v>
       </c>
       <c r="B11">
@@ -4072,7 +4676,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="547" t="s">
+      <c r="A12" s="1133" t="s">
         <v>256</v>
       </c>
       <c r="B12">
@@ -4149,7 +4753,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="547" t="s">
+      <c r="A13" s="1133" t="s">
         <v>257</v>
       </c>
       <c r="B13">
@@ -4162,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -4213,10 +4817,10 @@
         <v>1</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13">
         <v>0</v>
@@ -4226,7 +4830,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="547" t="s">
+      <c r="A14" s="1133" t="s">
         <v>258</v>
       </c>
       <c r="B14">
@@ -4303,7 +4907,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="547" t="s">
+      <c r="A15" s="1133" t="s">
         <v>259</v>
       </c>
       <c r="B15">
@@ -4380,7 +4984,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="547" t="s">
+      <c r="A16" s="1133" t="s">
         <v>260</v>
       </c>
       <c r="B16">
@@ -4457,7 +5061,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="547" t="s">
+      <c r="A17" s="1133" t="s">
         <v>261</v>
       </c>
       <c r="B17">
@@ -4534,7 +5138,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="547" t="s">
+      <c r="A18" s="1133" t="s">
         <v>262</v>
       </c>
       <c r="B18">
@@ -4611,7 +5215,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="547" t="s">
+      <c r="A19" s="1133" t="s">
         <v>263</v>
       </c>
       <c r="B19">
@@ -4688,7 +5292,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="547" t="s">
+      <c r="A20" s="1133" t="s">
         <v>264</v>
       </c>
       <c r="B20">
@@ -4765,7 +5369,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="547" t="s">
+      <c r="A21" s="1133" t="s">
         <v>265</v>
       </c>
       <c r="B21">
@@ -4802,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -4842,7 +5446,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="547" t="s">
+      <c r="A22" s="1133" t="s">
         <v>266</v>
       </c>
       <c r="B22">
@@ -4919,7 +5523,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="547" t="s">
+      <c r="A23" s="1133" t="s">
         <v>267</v>
       </c>
       <c r="B23">
@@ -4956,7 +5560,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -4996,7 +5600,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="547" t="s">
+      <c r="A24" s="1133" t="s">
         <v>268</v>
       </c>
       <c r="B24">
@@ -5073,7 +5677,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="547" t="s">
+      <c r="A25" s="1133" t="s">
         <v>269</v>
       </c>
       <c r="B25">
@@ -5150,7 +5754,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="547" t="s">
+      <c r="A26" s="1133" t="s">
         <v>270</v>
       </c>
       <c r="B26">
@@ -5227,7 +5831,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="547" t="s">
+      <c r="A27" s="1133" t="s">
         <v>271</v>
       </c>
       <c r="B27">
@@ -5304,7 +5908,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="547" t="s">
+      <c r="A28" s="1133" t="s">
         <v>272</v>
       </c>
       <c r="B28">
@@ -5381,7 +5985,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="547" t="s">
+      <c r="A29" s="1133" t="s">
         <v>273</v>
       </c>
       <c r="B29">
@@ -5458,7 +6062,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="547" t="s">
+      <c r="A30" s="1133" t="s">
         <v>274</v>
       </c>
       <c r="B30">
@@ -5535,7 +6139,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="547" t="s">
+      <c r="A31" s="1133" t="s">
         <v>275</v>
       </c>
       <c r="B31">
@@ -5590,7 +6194,7 @@
         <v>0</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31">
         <v>1</v>
@@ -5612,7 +6216,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="547" t="s">
+      <c r="A32" s="1133" t="s">
         <v>276</v>
       </c>
       <c r="B32">
@@ -5689,7 +6293,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="547" t="s">
+      <c r="A33" s="1133" t="s">
         <v>277</v>
       </c>
       <c r="B33">
@@ -5744,7 +6348,7 @@
         <v>0</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33">
         <v>1</v>
@@ -5766,7 +6370,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="547" t="s">
+      <c r="A34" s="1133" t="s">
         <v>278</v>
       </c>
       <c r="B34">
@@ -5843,7 +6447,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="547" t="s">
+      <c r="A35" s="1133" t="s">
         <v>279</v>
       </c>
       <c r="B35">
@@ -5920,7 +6524,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="547" t="s">
+      <c r="A36" s="1133" t="s">
         <v>280</v>
       </c>
       <c r="B36">
@@ -5997,7 +6601,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="547" t="s">
+      <c r="A37" s="1133" t="s">
         <v>281</v>
       </c>
       <c r="B37">
@@ -6074,7 +6678,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="547" t="s">
+      <c r="A38" s="1133" t="s">
         <v>282</v>
       </c>
       <c r="B38">
@@ -6151,7 +6755,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="547" t="s">
+      <c r="A39" s="1133" t="s">
         <v>283</v>
       </c>
       <c r="B39">
@@ -6228,7 +6832,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="547" t="s">
+      <c r="A40" s="1133" t="s">
         <v>284</v>
       </c>
       <c r="B40">
@@ -6305,7 +6909,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="547" t="s">
+      <c r="A41" s="1133" t="s">
         <v>285</v>
       </c>
       <c r="B41">
@@ -6382,7 +6986,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="547" t="s">
+      <c r="A42" s="1133" t="s">
         <v>286</v>
       </c>
       <c r="B42">
@@ -6459,7 +7063,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="547" t="s">
+      <c r="A43" s="1133" t="s">
         <v>287</v>
       </c>
       <c r="B43">
@@ -6496,7 +7100,7 @@
         <v>0</v>
       </c>
       <c r="M43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -6536,7 +7140,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="547" t="s">
+      <c r="A44" s="1133" t="s">
         <v>288</v>
       </c>
       <c r="B44">
@@ -6613,7 +7217,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="547" t="s">
+      <c r="A45" s="1133" t="s">
         <v>289</v>
       </c>
       <c r="B45">
@@ -6690,7 +7294,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="547" t="s">
+      <c r="A46" s="1133" t="s">
         <v>290</v>
       </c>
       <c r="B46">
@@ -6727,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="M46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -6767,7 +7371,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="547" t="s">
+      <c r="A47" s="1133" t="s">
         <v>291</v>
       </c>
       <c r="B47">
@@ -6844,7 +7448,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="547" t="s">
+      <c r="A48" s="1133" t="s">
         <v>292</v>
       </c>
       <c r="B48">
@@ -6921,7 +7525,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="547" t="s">
+      <c r="A49" s="1133" t="s">
         <v>293</v>
       </c>
       <c r="B49">
@@ -6998,7 +7602,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="547" t="s">
+      <c r="A50" s="1133" t="s">
         <v>294</v>
       </c>
       <c r="B50">
@@ -7075,7 +7679,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="547" t="s">
+      <c r="A51" s="1133" t="s">
         <v>295</v>
       </c>
       <c r="B51">
@@ -7152,7 +7756,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="547" t="s">
+      <c r="A52" s="1133" t="s">
         <v>296</v>
       </c>
       <c r="B52">
@@ -7229,7 +7833,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="547" t="s">
+      <c r="A53" s="1133" t="s">
         <v>297</v>
       </c>
       <c r="B53">
@@ -7306,7 +7910,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="547" t="s">
+      <c r="A54" s="1133" t="s">
         <v>298</v>
       </c>
       <c r="B54">
@@ -7383,7 +7987,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="547" t="s">
+      <c r="A55" s="1133" t="s">
         <v>299</v>
       </c>
       <c r="B55">
@@ -7435,7 +8039,7 @@
         <v>0</v>
       </c>
       <c r="R55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S55">
         <v>1</v>
@@ -7460,7 +8064,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="547" t="s">
+      <c r="A56" s="1133" t="s">
         <v>300</v>
       </c>
       <c r="B56">
@@ -7537,7 +8141,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="547" t="s">
+      <c r="A57" s="1133" t="s">
         <v>301</v>
       </c>
       <c r="B57">
@@ -7614,7 +8218,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="547" t="s">
+      <c r="A58" s="1133" t="s">
         <v>302</v>
       </c>
       <c r="B58">
@@ -7691,7 +8295,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="547" t="s">
+      <c r="A59" s="1133" t="s">
         <v>303</v>
       </c>
       <c r="B59">
@@ -7768,7 +8372,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="547" t="s">
+      <c r="A60" s="1133" t="s">
         <v>304</v>
       </c>
       <c r="B60">
@@ -7845,7 +8449,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="547" t="s">
+      <c r="A61" s="1133" t="s">
         <v>305</v>
       </c>
       <c r="B61">
@@ -7922,7 +8526,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="547" t="s">
+      <c r="A62" s="1133" t="s">
         <v>306</v>
       </c>
       <c r="B62">
@@ -7999,7 +8603,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="547" t="s">
+      <c r="A63" s="1133" t="s">
         <v>307</v>
       </c>
       <c r="B63">
@@ -8076,7 +8680,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="547" t="s">
+      <c r="A64" s="1133" t="s">
         <v>308</v>
       </c>
       <c r="B64">
@@ -8153,7 +8757,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="547" t="s">
+      <c r="A65" s="1133" t="s">
         <v>309</v>
       </c>
       <c r="B65">
@@ -8230,7 +8834,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="547" t="s">
+      <c r="A66" s="1133" t="s">
         <v>310</v>
       </c>
       <c r="B66">
@@ -8307,7 +8911,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="547" t="s">
+      <c r="A67" s="1133" t="s">
         <v>311</v>
       </c>
       <c r="B67">
@@ -8384,7 +8988,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="547" t="s">
+      <c r="A68" s="1133" t="s">
         <v>312</v>
       </c>
       <c r="B68">
@@ -8409,7 +9013,7 @@
         <v>0</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -8421,7 +9025,7 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -8461,7 +9065,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="547" t="s">
+      <c r="A69" s="1133" t="s">
         <v>313</v>
       </c>
       <c r="B69">
@@ -8538,7 +9142,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="547" t="s">
+      <c r="A70" s="1133" t="s">
         <v>314</v>
       </c>
       <c r="B70">
@@ -8575,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="M70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -8615,7 +9219,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="547" t="s">
+      <c r="A71" s="1133" t="s">
         <v>315</v>
       </c>
       <c r="B71">
@@ -8652,7 +9256,7 @@
         <v>0</v>
       </c>
       <c r="M71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -8692,7 +9296,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="547" t="s">
+      <c r="A72" s="1133" t="s">
         <v>316</v>
       </c>
       <c r="B72">
@@ -8769,7 +9373,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="547" t="s">
+      <c r="A73" s="1133" t="s">
         <v>317</v>
       </c>
       <c r="B73">
@@ -8846,7 +9450,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="547" t="s">
+      <c r="A74" s="1133" t="s">
         <v>318</v>
       </c>
       <c r="B74">
@@ -8923,7 +9527,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="547" t="s">
+      <c r="A75" s="1133" t="s">
         <v>319</v>
       </c>
       <c r="B75">
@@ -9000,7 +9604,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="547" t="s">
+      <c r="A76" s="1133" t="s">
         <v>320</v>
       </c>
       <c r="B76">
@@ -9077,7 +9681,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="547" t="s">
+      <c r="A77" s="1133" t="s">
         <v>321</v>
       </c>
       <c r="B77">
@@ -9114,7 +9718,7 @@
         <v>0</v>
       </c>
       <c r="M77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -9154,7 +9758,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="547" t="s">
+      <c r="A78" s="1133" t="s">
         <v>322</v>
       </c>
       <c r="B78">
@@ -9191,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="M78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -9231,7 +9835,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="547" t="s">
+      <c r="A79" s="1133" t="s">
         <v>323</v>
       </c>
       <c r="B79">
@@ -9308,7 +9912,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="547" t="s">
+      <c r="A80" s="1133" t="s">
         <v>324</v>
       </c>
       <c r="B80">
@@ -9385,7 +9989,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="547" t="s">
+      <c r="A81" s="1133" t="s">
         <v>325</v>
       </c>
       <c r="B81">
@@ -9462,7 +10066,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="547" t="s">
+      <c r="A82" s="1133" t="s">
         <v>326</v>
       </c>
       <c r="B82">
@@ -9539,7 +10143,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="547" t="s">
+      <c r="A83" s="1133" t="s">
         <v>327</v>
       </c>
       <c r="B83">
@@ -9616,7 +10220,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="547" t="s">
+      <c r="A84" s="1133" t="s">
         <v>328</v>
       </c>
       <c r="B84">
@@ -9693,7 +10297,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="547" t="s">
+      <c r="A85" s="1133" t="s">
         <v>329</v>
       </c>
       <c r="B85">
@@ -9770,7 +10374,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="547" t="s">
+      <c r="A86" s="1133" t="s">
         <v>330</v>
       </c>
       <c r="B86">
@@ -9847,7 +10451,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="547" t="s">
+      <c r="A87" s="1133" t="s">
         <v>331</v>
       </c>
       <c r="B87">
@@ -9924,7 +10528,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="547" t="s">
+      <c r="A88" s="1133" t="s">
         <v>332</v>
       </c>
       <c r="B88">
@@ -10001,7 +10605,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="547" t="s">
+      <c r="A89" s="1133" t="s">
         <v>333</v>
       </c>
       <c r="B89">
@@ -10078,7 +10682,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="547" t="s">
+      <c r="A90" s="1133" t="s">
         <v>334</v>
       </c>
       <c r="B90">
@@ -10155,7 +10759,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="547" t="s">
+      <c r="A91" s="1133" t="s">
         <v>335</v>
       </c>
       <c r="B91">
@@ -10232,7 +10836,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="547" t="s">
+      <c r="A92" s="1133" t="s">
         <v>336</v>
       </c>
       <c r="B92">
@@ -10309,7 +10913,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="547" t="s">
+      <c r="A93" s="1133" t="s">
         <v>337</v>
       </c>
       <c r="B93">
@@ -10386,7 +10990,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="547" t="s">
+      <c r="A94" s="1133" t="s">
         <v>338</v>
       </c>
       <c r="B94">
@@ -10463,7 +11067,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="547" t="s">
+      <c r="A95" s="1133" t="s">
         <v>339</v>
       </c>
       <c r="B95">
@@ -10540,7 +11144,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="547" t="s">
+      <c r="A96" s="1133" t="s">
         <v>340</v>
       </c>
       <c r="B96">
@@ -10617,7 +11221,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="547" t="s">
+      <c r="A97" s="1133" t="s">
         <v>341</v>
       </c>
       <c r="B97">
@@ -10694,7 +11298,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="547" t="s">
+      <c r="A98" s="1133" t="s">
         <v>342</v>
       </c>
       <c r="B98">
@@ -10771,7 +11375,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="547" t="s">
+      <c r="A99" s="1133" t="s">
         <v>343</v>
       </c>
       <c r="B99">
@@ -10848,7 +11452,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="547" t="s">
+      <c r="A100" s="1133" t="s">
         <v>344</v>
       </c>
       <c r="B100">
@@ -10885,7 +11489,7 @@
         <v>0</v>
       </c>
       <c r="M100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -10925,7 +11529,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="547" t="s">
+      <c r="A101" s="1133" t="s">
         <v>345</v>
       </c>
       <c r="B101">
@@ -11002,7 +11606,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="547" t="s">
+      <c r="A102" s="1133" t="s">
         <v>346</v>
       </c>
       <c r="B102">
@@ -11079,7 +11683,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="547" t="s">
+      <c r="A103" s="1133" t="s">
         <v>347</v>
       </c>
       <c r="B103">
@@ -11156,7 +11760,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="547" t="s">
+      <c r="A104" s="1133" t="s">
         <v>348</v>
       </c>
       <c r="B104">
@@ -11193,7 +11797,7 @@
         <v>0</v>
       </c>
       <c r="M104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N104">
         <v>1</v>
@@ -11233,7 +11837,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="547" t="s">
+      <c r="A105" s="1133" t="s">
         <v>349</v>
       </c>
       <c r="B105">
@@ -11310,7 +11914,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="547" t="s">
+      <c r="A106" s="1133" t="s">
         <v>350</v>
       </c>
       <c r="B106">
@@ -11387,7 +11991,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="547" t="s">
+      <c r="A107" s="1133" t="s">
         <v>351</v>
       </c>
       <c r="B107">
@@ -11464,7 +12068,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="547" t="s">
+      <c r="A108" s="1133" t="s">
         <v>352</v>
       </c>
       <c r="B108">
@@ -11541,7 +12145,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="547" t="s">
+      <c r="A109" s="1133" t="s">
         <v>353</v>
       </c>
       <c r="B109">
@@ -11578,7 +12182,7 @@
         <v>0</v>
       </c>
       <c r="M109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N109">
         <v>1</v>
@@ -11618,7 +12222,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="547" t="s">
+      <c r="A110" s="1133" t="s">
         <v>354</v>
       </c>
       <c r="B110">
@@ -11695,7 +12299,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="547" t="s">
+      <c r="A111" s="1133" t="s">
         <v>355</v>
       </c>
       <c r="B111">
@@ -11772,7 +12376,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="547" t="s">
+      <c r="A112" s="1133" t="s">
         <v>356</v>
       </c>
       <c r="B112">
@@ -11849,7 +12453,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="547" t="s">
+      <c r="A113" s="1133" t="s">
         <v>357</v>
       </c>
       <c r="B113">
@@ -11926,7 +12530,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="547" t="s">
+      <c r="A114" s="1133" t="s">
         <v>358</v>
       </c>
       <c r="B114">
@@ -12003,7 +12607,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="547" t="s">
+      <c r="A115" s="1133" t="s">
         <v>359</v>
       </c>
       <c r="B115">
@@ -12061,7 +12665,7 @@
         <v>0</v>
       </c>
       <c r="T115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U115">
         <v>1</v>
@@ -12076,11 +12680,11 @@
         <v>0</v>
       </c>
       <c r="Y115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="547" t="s">
+      <c r="A116" s="1133" t="s">
         <v>360</v>
       </c>
       <c r="B116">
@@ -12157,7 +12761,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="547" t="s">
+      <c r="A117" s="1133" t="s">
         <v>361</v>
       </c>
       <c r="B117">
@@ -12234,7 +12838,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="547" t="s">
+      <c r="A118" s="1133" t="s">
         <v>362</v>
       </c>
       <c r="B118">
@@ -12311,7 +12915,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="547" t="s">
+      <c r="A119" s="1133" t="s">
         <v>363</v>
       </c>
       <c r="B119">
@@ -12388,7 +12992,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="547" t="s">
+      <c r="A120" s="1133" t="s">
         <v>364</v>
       </c>
       <c r="B120">
@@ -12465,7 +13069,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="547" t="s">
+      <c r="A121" s="1133" t="s">
         <v>365</v>
       </c>
       <c r="B121">
@@ -12542,7 +13146,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="547" t="s">
+      <c r="A122" s="1133" t="s">
         <v>366</v>
       </c>
       <c r="B122">
@@ -12619,7 +13223,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="547" t="s">
+      <c r="A123" s="1133" t="s">
         <v>367</v>
       </c>
       <c r="B123">
@@ -12696,7 +13300,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="547" t="s">
+      <c r="A124" s="1133" t="s">
         <v>368</v>
       </c>
       <c r="B124">
@@ -12773,7 +13377,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="547" t="s">
+      <c r="A125" s="1133" t="s">
         <v>369</v>
       </c>
       <c r="B125">
@@ -12850,7 +13454,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="547" t="s">
+      <c r="A126" s="1133" t="s">
         <v>370</v>
       </c>
       <c r="B126">
@@ -12927,7 +13531,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="547" t="s">
+      <c r="A127" s="1133" t="s">
         <v>371</v>
       </c>
       <c r="B127">
@@ -13004,7 +13608,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="547" t="s">
+      <c r="A128" s="1133" t="s">
         <v>372</v>
       </c>
       <c r="B128">
@@ -13081,7 +13685,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="547" t="s">
+      <c r="A129" s="1133" t="s">
         <v>373</v>
       </c>
       <c r="B129">
@@ -13158,7 +13762,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="547" t="s">
+      <c r="A130" s="1133" t="s">
         <v>374</v>
       </c>
       <c r="B130">
@@ -13235,7 +13839,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="547" t="s">
+      <c r="A131" s="1133" t="s">
         <v>375</v>
       </c>
       <c r="B131">
@@ -13312,7 +13916,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="547" t="s">
+      <c r="A132" s="1133" t="s">
         <v>376</v>
       </c>
       <c r="B132">
@@ -13389,7 +13993,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="547" t="s">
+      <c r="A133" s="1133" t="s">
         <v>377</v>
       </c>
       <c r="B133">
@@ -13466,7 +14070,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="547" t="s">
+      <c r="A134" s="1133" t="s">
         <v>378</v>
       </c>
       <c r="B134">
@@ -13543,7 +14147,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="547" t="s">
+      <c r="A135" s="1133" t="s">
         <v>379</v>
       </c>
       <c r="B135">
@@ -13620,7 +14224,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="547" t="s">
+      <c r="A136" s="1133" t="s">
         <v>380</v>
       </c>
       <c r="B136">
@@ -13697,7 +14301,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="547" t="s">
+      <c r="A137" s="1133" t="s">
         <v>381</v>
       </c>
       <c r="B137">
@@ -13774,7 +14378,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="547" t="s">
+      <c r="A138" s="1133" t="s">
         <v>382</v>
       </c>
       <c r="B138">
@@ -13851,7 +14455,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="547" t="s">
+      <c r="A139" s="1133" t="s">
         <v>383</v>
       </c>
       <c r="B139">
@@ -13928,7 +14532,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="547" t="s">
+      <c r="A140" s="1133" t="s">
         <v>384</v>
       </c>
       <c r="B140">
@@ -14005,7 +14609,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="547" t="s">
+      <c r="A141" s="1133" t="s">
         <v>385</v>
       </c>
       <c r="B141">
@@ -14082,7 +14686,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="547" t="s">
+      <c r="A142" s="1133" t="s">
         <v>386</v>
       </c>
       <c r="B142">
@@ -14140,7 +14744,7 @@
         <v>0</v>
       </c>
       <c r="T142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U142">
         <v>1</v>
@@ -14155,11 +14759,11 @@
         <v>0</v>
       </c>
       <c r="Y142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="547" t="s">
+      <c r="A143" s="1133" t="s">
         <v>387</v>
       </c>
       <c r="B143">
@@ -14236,7 +14840,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="547" t="s">
+      <c r="A144" s="1133" t="s">
         <v>388</v>
       </c>
       <c r="B144">
@@ -14294,7 +14898,7 @@
         <v>0</v>
       </c>
       <c r="T144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U144">
         <v>1</v>
@@ -14309,11 +14913,11 @@
         <v>0</v>
       </c>
       <c r="Y144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="547" t="s">
+      <c r="A145" s="1133" t="s">
         <v>389</v>
       </c>
       <c r="B145">
@@ -14371,7 +14975,7 @@
         <v>0</v>
       </c>
       <c r="T145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U145">
         <v>1</v>
@@ -14386,11 +14990,11 @@
         <v>0</v>
       </c>
       <c r="Y145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="547" t="s">
+      <c r="A146" s="1133" t="s">
         <v>390</v>
       </c>
       <c r="B146">
@@ -14467,7 +15071,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="547" t="s">
+      <c r="A147" s="1133" t="s">
         <v>391</v>
       </c>
       <c r="B147">
@@ -14544,7 +15148,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="547" t="s">
+      <c r="A148" s="1133" t="s">
         <v>392</v>
       </c>
       <c r="B148">
@@ -14621,7 +15225,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="547" t="s">
+      <c r="A149" s="1133" t="s">
         <v>393</v>
       </c>
       <c r="B149">
@@ -14698,7 +15302,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="547" t="s">
+      <c r="A150" s="1133" t="s">
         <v>394</v>
       </c>
       <c r="B150">
@@ -14711,7 +15315,7 @@
         <v>0</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F150">
         <v>1</v>
@@ -14762,10 +15366,10 @@
         <v>1</v>
       </c>
       <c r="V150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X150">
         <v>0</v>
@@ -14775,7 +15379,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="547" t="s">
+      <c r="A151" s="1133" t="s">
         <v>395</v>
       </c>
       <c r="B151">
@@ -14852,7 +15456,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="547" t="s">
+      <c r="A152" s="1133" t="s">
         <v>396</v>
       </c>
       <c r="B152">
@@ -14929,7 +15533,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="547" t="s">
+      <c r="A153" s="1133" t="s">
         <v>397</v>
       </c>
       <c r="B153">
@@ -15006,7 +15610,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="547" t="s">
+      <c r="A154" s="1133" t="s">
         <v>398</v>
       </c>
       <c r="B154">
@@ -15083,7 +15687,7 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="547" t="s">
+      <c r="A155" s="1133" t="s">
         <v>399</v>
       </c>
       <c r="B155">
@@ -15160,7 +15764,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="547" t="s">
+      <c r="A156" s="1133" t="s">
         <v>400</v>
       </c>
       <c r="B156">
@@ -15197,7 +15801,7 @@
         <v>0</v>
       </c>
       <c r="M156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N156">
         <v>1</v>
@@ -15237,7 +15841,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="547" t="s">
+      <c r="A157" s="1133" t="s">
         <v>401</v>
       </c>
       <c r="B157">
@@ -15247,7 +15851,7 @@
         <v>0</v>
       </c>
       <c r="D157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -15274,7 +15878,7 @@
         <v>0</v>
       </c>
       <c r="M157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N157">
         <v>1</v>
@@ -15314,7 +15918,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="547" t="s">
+      <c r="A158" s="1133" t="s">
         <v>402</v>
       </c>
       <c r="B158">
@@ -15351,7 +15955,7 @@
         <v>0</v>
       </c>
       <c r="M158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N158">
         <v>1</v>
@@ -15391,7 +15995,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="547" t="s">
+      <c r="A159" s="1133" t="s">
         <v>403</v>
       </c>
       <c r="B159">
@@ -15468,7 +16072,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="547" t="s">
+      <c r="A160" s="1133" t="s">
         <v>404</v>
       </c>
       <c r="B160">
@@ -15545,7 +16149,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="547" t="s">
+      <c r="A161" s="1133" t="s">
         <v>405</v>
       </c>
       <c r="B161">
@@ -15622,7 +16226,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="547" t="s">
+      <c r="A162" s="1133" t="s">
         <v>406</v>
       </c>
       <c r="B162">
@@ -15699,7 +16303,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="547" t="s">
+      <c r="A163" s="1133" t="s">
         <v>407</v>
       </c>
       <c r="B163">
@@ -15776,7 +16380,7 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="547" t="s">
+      <c r="A164" s="1133" t="s">
         <v>408</v>
       </c>
       <c r="B164">
@@ -15853,7 +16457,7 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="547" t="s">
+      <c r="A165" s="1133" t="s">
         <v>409</v>
       </c>
       <c r="B165">
@@ -15930,7 +16534,7 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="547" t="s">
+      <c r="A166" s="1133" t="s">
         <v>410</v>
       </c>
       <c r="B166">
@@ -16007,7 +16611,7 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="547" t="s">
+      <c r="A167" s="1133" t="s">
         <v>411</v>
       </c>
       <c r="B167">
@@ -16084,7 +16688,7 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="547" t="s">
+      <c r="A168" s="1133" t="s">
         <v>412</v>
       </c>
       <c r="B168">
@@ -16136,7 +16740,7 @@
         <v>0</v>
       </c>
       <c r="R168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S168">
         <v>1</v>
@@ -16161,7 +16765,7 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="547" t="s">
+      <c r="A169" s="1133" t="s">
         <v>413</v>
       </c>
       <c r="B169">
@@ -16213,7 +16817,7 @@
         <v>0</v>
       </c>
       <c r="R169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S169">
         <v>1</v>
@@ -16238,7 +16842,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="547" t="s">
+      <c r="A170" s="1133" t="s">
         <v>414</v>
       </c>
       <c r="B170">
@@ -16315,7 +16919,7 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="547" t="s">
+      <c r="A171" s="1133" t="s">
         <v>415</v>
       </c>
       <c r="B171">
@@ -16392,7 +16996,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="547" t="s">
+      <c r="A172" s="1133" t="s">
         <v>416</v>
       </c>
       <c r="B172">
@@ -16469,7 +17073,7 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="547" t="s">
+      <c r="A173" s="1133" t="s">
         <v>417</v>
       </c>
       <c r="B173">
@@ -16546,7 +17150,7 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="547" t="s">
+      <c r="A174" s="1133" t="s">
         <v>418</v>
       </c>
       <c r="B174">
@@ -16623,7 +17227,7 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="547" t="s">
+      <c r="A175" s="1133" t="s">
         <v>419</v>
       </c>
       <c r="B175">
@@ -16700,7 +17304,7 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="547" t="s">
+      <c r="A176" s="1133" t="s">
         <v>420</v>
       </c>
       <c r="B176">
@@ -16777,7 +17381,7 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="547" t="s">
+      <c r="A177" s="1133" t="s">
         <v>421</v>
       </c>
       <c r="B177">
@@ -16854,7 +17458,7 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="547" t="s">
+      <c r="A178" s="1133" t="s">
         <v>422</v>
       </c>
       <c r="B178">
@@ -16931,7 +17535,7 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="547" t="s">
+      <c r="A179" s="1133" t="s">
         <v>423</v>
       </c>
       <c r="B179">
@@ -17008,7 +17612,7 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="547" t="s">
+      <c r="A180" s="1133" t="s">
         <v>424</v>
       </c>
       <c r="B180">
@@ -17085,7 +17689,7 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="547" t="s">
+      <c r="A181" s="1133" t="s">
         <v>425</v>
       </c>
       <c r="B181">
@@ -17162,7 +17766,7 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="547" t="s">
+      <c r="A182" s="1133" t="s">
         <v>426</v>
       </c>
       <c r="B182">
@@ -17239,7 +17843,7 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="547" t="s">
+      <c r="A183" s="1133" t="s">
         <v>427</v>
       </c>
       <c r="B183">
@@ -17316,7 +17920,7 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="547" t="s">
+      <c r="A184" s="1133" t="s">
         <v>428</v>
       </c>
       <c r="B184">
@@ -17393,7 +17997,7 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="547" t="s">
+      <c r="A185" s="1133" t="s">
         <v>429</v>
       </c>
       <c r="B185">
@@ -17470,7 +18074,7 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="547" t="s">
+      <c r="A186" s="1133" t="s">
         <v>430</v>
       </c>
       <c r="B186">
@@ -17547,7 +18151,7 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="547" t="s">
+      <c r="A187" s="1133" t="s">
         <v>431</v>
       </c>
       <c r="B187">
@@ -17560,7 +18164,7 @@
         <v>0</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187">
         <v>1</v>
@@ -17611,10 +18215,10 @@
         <v>1</v>
       </c>
       <c r="V187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X187">
         <v>0</v>
@@ -17624,7 +18228,7 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="547" t="s">
+      <c r="A188" s="1133" t="s">
         <v>432</v>
       </c>
       <c r="B188">
@@ -17701,7 +18305,7 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="547" t="s">
+      <c r="A189" s="1133" t="s">
         <v>433</v>
       </c>
       <c r="B189">
@@ -17778,7 +18382,7 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="547" t="s">
+      <c r="A190" s="1133" t="s">
         <v>434</v>
       </c>
       <c r="B190">
@@ -17855,7 +18459,7 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="547" t="s">
+      <c r="A191" s="1133" t="s">
         <v>435</v>
       </c>
       <c r="B191">
@@ -17932,7 +18536,7 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="547" t="s">
+      <c r="A192" s="1133" t="s">
         <v>436</v>
       </c>
       <c r="B192">
@@ -18009,7 +18613,7 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="547" t="s">
+      <c r="A193" s="1133" t="s">
         <v>437</v>
       </c>
       <c r="B193">
@@ -18086,7 +18690,7 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="547" t="s">
+      <c r="A194" s="1133" t="s">
         <v>438</v>
       </c>
       <c r="B194">
@@ -18163,7 +18767,7 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="547" t="s">
+      <c r="A195" s="1133" t="s">
         <v>439</v>
       </c>
       <c r="B195">
@@ -18240,7 +18844,7 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="547" t="s">
+      <c r="A196" s="1133" t="s">
         <v>440</v>
       </c>
       <c r="B196">
@@ -18317,7 +18921,7 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="547" t="s">
+      <c r="A197" s="1133" t="s">
         <v>441</v>
       </c>
       <c r="B197">
@@ -18394,7 +18998,7 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="547" t="s">
+      <c r="A198" s="1133" t="s">
         <v>442</v>
       </c>
       <c r="B198">
@@ -18471,7 +19075,7 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="547" t="s">
+      <c r="A199" s="1133" t="s">
         <v>443</v>
       </c>
       <c r="B199">
@@ -18548,7 +19152,7 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="547" t="s">
+      <c r="A200" s="1133" t="s">
         <v>444</v>
       </c>
       <c r="B200">
@@ -18625,7 +19229,7 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="547" t="s">
+      <c r="A201" s="1133" t="s">
         <v>445</v>
       </c>
       <c r="B201">
@@ -18702,7 +19306,7 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="547" t="s">
+      <c r="A202" s="1133" t="s">
         <v>446</v>
       </c>
       <c r="B202">
@@ -18779,7 +19383,7 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="547" t="s">
+      <c r="A203" s="1133" t="s">
         <v>447</v>
       </c>
       <c r="B203">
@@ -18856,7 +19460,7 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="547" t="s">
+      <c r="A204" s="1133" t="s">
         <v>448</v>
       </c>
       <c r="B204">
@@ -18933,7 +19537,7 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="547" t="s">
+      <c r="A205" s="1133" t="s">
         <v>449</v>
       </c>
       <c r="B205">
@@ -19010,7 +19614,7 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="547" t="s">
+      <c r="A206" s="1133" t="s">
         <v>450</v>
       </c>
       <c r="B206">
@@ -27552,84 +28156,84 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="545" t="s">
+      <c r="A1" s="1131" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="427" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="433" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="439" t="s">
+      <c r="B1" s="1013" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1019" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1025" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="445" t="s">
+      <c r="E1" s="1031" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="451" t="s">
+      <c r="F1" s="1037" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="457" t="s">
+      <c r="G1" s="1043" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="463" t="s">
+      <c r="H1" s="1049" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="469" t="s">
+      <c r="I1" s="1055" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="475" t="s">
+      <c r="J1" s="1061" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="481" t="s">
+      <c r="K1" s="1067" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="487" t="s">
+      <c r="L1" s="1073" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="493" t="s">
+      <c r="M1" s="1079" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="499" t="s">
+      <c r="N1" s="1085" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="505" t="s">
+      <c r="O1" s="1091" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="511" t="s">
+      <c r="P1" s="1097" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="517" t="s">
+      <c r="Q1" s="1103" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="523" t="s">
+      <c r="R1" s="1109" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="529" t="s">
+      <c r="S1" s="1115" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="535" t="s">
+      <c r="T1" s="1121" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="541" t="s">
+      <c r="U1" s="1127" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="551" t="s">
+      <c r="V1" s="1137" t="s">
         <v>225</v>
       </c>
-      <c r="W1" s="557" t="s">
+      <c r="W1" s="1143" t="s">
         <v>226</v>
       </c>
-      <c r="X1" s="563" t="s">
+      <c r="X1" s="1149" t="s">
         <v>227</v>
       </c>
-      <c r="Y1" s="569" t="s">
+      <c r="Y1" s="1155" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="545" t="s">
+      <c r="A2" s="1131" t="s">
         <v>246</v>
       </c>
       <c r="B2">
@@ -27706,7 +28310,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="545" t="s">
+      <c r="A3" s="1131" t="s">
         <v>247</v>
       </c>
       <c r="B3">
@@ -27783,7 +28387,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="545" t="s">
+      <c r="A4" s="1131" t="s">
         <v>248</v>
       </c>
       <c r="B4">
@@ -27860,7 +28464,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="545" t="s">
+      <c r="A5" s="1131" t="s">
         <v>249</v>
       </c>
       <c r="B5">
@@ -27937,7 +28541,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="545" t="s">
+      <c r="A6" s="1131" t="s">
         <v>250</v>
       </c>
       <c r="B6">
@@ -28014,7 +28618,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="545" t="s">
+      <c r="A7" s="1131" t="s">
         <v>251</v>
       </c>
       <c r="B7">
@@ -28091,7 +28695,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="545" t="s">
+      <c r="A8" s="1131" t="s">
         <v>252</v>
       </c>
       <c r="B8">
@@ -28168,7 +28772,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="545" t="s">
+      <c r="A9" s="1131" t="s">
         <v>253</v>
       </c>
       <c r="B9">
@@ -28245,7 +28849,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="545" t="s">
+      <c r="A10" s="1131" t="s">
         <v>254</v>
       </c>
       <c r="B10">
@@ -28322,7 +28926,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="545" t="s">
+      <c r="A11" s="1131" t="s">
         <v>255</v>
       </c>
       <c r="B11">
@@ -28399,7 +29003,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="545" t="s">
+      <c r="A12" s="1131" t="s">
         <v>256</v>
       </c>
       <c r="B12">
@@ -28476,7 +29080,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="545" t="s">
+      <c r="A13" s="1131" t="s">
         <v>257</v>
       </c>
       <c r="B13">
@@ -28553,7 +29157,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="545" t="s">
+      <c r="A14" s="1131" t="s">
         <v>258</v>
       </c>
       <c r="B14">
@@ -28630,7 +29234,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="545" t="s">
+      <c r="A15" s="1131" t="s">
         <v>259</v>
       </c>
       <c r="B15">
@@ -28707,7 +29311,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="545" t="s">
+      <c r="A16" s="1131" t="s">
         <v>260</v>
       </c>
       <c r="B16">
@@ -28784,7 +29388,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="545" t="s">
+      <c r="A17" s="1131" t="s">
         <v>261</v>
       </c>
       <c r="B17">
@@ -28861,7 +29465,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="545" t="s">
+      <c r="A18" s="1131" t="s">
         <v>262</v>
       </c>
       <c r="B18">
@@ -28938,7 +29542,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="545" t="s">
+      <c r="A19" s="1131" t="s">
         <v>263</v>
       </c>
       <c r="B19">
@@ -29015,7 +29619,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="545" t="s">
+      <c r="A20" s="1131" t="s">
         <v>264</v>
       </c>
       <c r="B20">
@@ -29092,7 +29696,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="545" t="s">
+      <c r="A21" s="1131" t="s">
         <v>265</v>
       </c>
       <c r="B21">
@@ -29169,7 +29773,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="545" t="s">
+      <c r="A22" s="1131" t="s">
         <v>266</v>
       </c>
       <c r="B22">
@@ -29246,7 +29850,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="545" t="s">
+      <c r="A23" s="1131" t="s">
         <v>267</v>
       </c>
       <c r="B23">
@@ -29323,7 +29927,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="545" t="s">
+      <c r="A24" s="1131" t="s">
         <v>268</v>
       </c>
       <c r="B24">
@@ -29400,7 +30004,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="545" t="s">
+      <c r="A25" s="1131" t="s">
         <v>269</v>
       </c>
       <c r="B25">
@@ -29477,7 +30081,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="545" t="s">
+      <c r="A26" s="1131" t="s">
         <v>270</v>
       </c>
       <c r="B26">
@@ -29554,7 +30158,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="545" t="s">
+      <c r="A27" s="1131" t="s">
         <v>271</v>
       </c>
       <c r="B27">
@@ -29631,7 +30235,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="545" t="s">
+      <c r="A28" s="1131" t="s">
         <v>272</v>
       </c>
       <c r="B28">
@@ -29708,7 +30312,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="545" t="s">
+      <c r="A29" s="1131" t="s">
         <v>273</v>
       </c>
       <c r="B29">
@@ -29785,7 +30389,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="545" t="s">
+      <c r="A30" s="1131" t="s">
         <v>274</v>
       </c>
       <c r="B30">
@@ -29862,7 +30466,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="545" t="s">
+      <c r="A31" s="1131" t="s">
         <v>275</v>
       </c>
       <c r="B31">
@@ -29939,7 +30543,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="545" t="s">
+      <c r="A32" s="1131" t="s">
         <v>276</v>
       </c>
       <c r="B32">
@@ -30016,7 +30620,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="545" t="s">
+      <c r="A33" s="1131" t="s">
         <v>277</v>
       </c>
       <c r="B33">
@@ -30093,7 +30697,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="545" t="s">
+      <c r="A34" s="1131" t="s">
         <v>278</v>
       </c>
       <c r="B34">
@@ -30170,7 +30774,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="545" t="s">
+      <c r="A35" s="1131" t="s">
         <v>279</v>
       </c>
       <c r="B35">
@@ -30247,7 +30851,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="545" t="s">
+      <c r="A36" s="1131" t="s">
         <v>280</v>
       </c>
       <c r="B36">
@@ -30324,7 +30928,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="545" t="s">
+      <c r="A37" s="1131" t="s">
         <v>281</v>
       </c>
       <c r="B37">
@@ -30401,7 +31005,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="545" t="s">
+      <c r="A38" s="1131" t="s">
         <v>282</v>
       </c>
       <c r="B38">
@@ -30478,7 +31082,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="545" t="s">
+      <c r="A39" s="1131" t="s">
         <v>283</v>
       </c>
       <c r="B39">
@@ -30555,7 +31159,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="545" t="s">
+      <c r="A40" s="1131" t="s">
         <v>284</v>
       </c>
       <c r="B40">
@@ -30632,7 +31236,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="545" t="s">
+      <c r="A41" s="1131" t="s">
         <v>285</v>
       </c>
       <c r="B41">
@@ -30709,7 +31313,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="545" t="s">
+      <c r="A42" s="1131" t="s">
         <v>286</v>
       </c>
       <c r="B42">
@@ -30786,7 +31390,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="545" t="s">
+      <c r="A43" s="1131" t="s">
         <v>287</v>
       </c>
       <c r="B43">
@@ -30863,7 +31467,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="545" t="s">
+      <c r="A44" s="1131" t="s">
         <v>288</v>
       </c>
       <c r="B44">
@@ -30940,7 +31544,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="545" t="s">
+      <c r="A45" s="1131" t="s">
         <v>289</v>
       </c>
       <c r="B45">
@@ -31017,7 +31621,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="545" t="s">
+      <c r="A46" s="1131" t="s">
         <v>290</v>
       </c>
       <c r="B46">
@@ -31094,7 +31698,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="545" t="s">
+      <c r="A47" s="1131" t="s">
         <v>291</v>
       </c>
       <c r="B47">
@@ -31171,7 +31775,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="545" t="s">
+      <c r="A48" s="1131" t="s">
         <v>292</v>
       </c>
       <c r="B48">
@@ -31248,7 +31852,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="545" t="s">
+      <c r="A49" s="1131" t="s">
         <v>293</v>
       </c>
       <c r="B49">
@@ -31325,7 +31929,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="545" t="s">
+      <c r="A50" s="1131" t="s">
         <v>294</v>
       </c>
       <c r="B50">
@@ -31402,7 +32006,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="545" t="s">
+      <c r="A51" s="1131" t="s">
         <v>295</v>
       </c>
       <c r="B51">
@@ -31479,7 +32083,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="545" t="s">
+      <c r="A52" s="1131" t="s">
         <v>296</v>
       </c>
       <c r="B52">
@@ -31556,7 +32160,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="545" t="s">
+      <c r="A53" s="1131" t="s">
         <v>297</v>
       </c>
       <c r="B53">
@@ -31633,7 +32237,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="545" t="s">
+      <c r="A54" s="1131" t="s">
         <v>298</v>
       </c>
       <c r="B54">
@@ -31710,7 +32314,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="545" t="s">
+      <c r="A55" s="1131" t="s">
         <v>299</v>
       </c>
       <c r="B55">
@@ -31787,7 +32391,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="545" t="s">
+      <c r="A56" s="1131" t="s">
         <v>300</v>
       </c>
       <c r="B56">
@@ -31864,7 +32468,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="545" t="s">
+      <c r="A57" s="1131" t="s">
         <v>301</v>
       </c>
       <c r="B57">
@@ -31941,7 +32545,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="545" t="s">
+      <c r="A58" s="1131" t="s">
         <v>302</v>
       </c>
       <c r="B58">
@@ -32018,7 +32622,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="545" t="s">
+      <c r="A59" s="1131" t="s">
         <v>303</v>
       </c>
       <c r="B59">
@@ -32095,7 +32699,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="545" t="s">
+      <c r="A60" s="1131" t="s">
         <v>304</v>
       </c>
       <c r="B60">
@@ -32172,7 +32776,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="545" t="s">
+      <c r="A61" s="1131" t="s">
         <v>305</v>
       </c>
       <c r="B61">
@@ -32249,7 +32853,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="545" t="s">
+      <c r="A62" s="1131" t="s">
         <v>306</v>
       </c>
       <c r="B62">
@@ -32326,7 +32930,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="545" t="s">
+      <c r="A63" s="1131" t="s">
         <v>307</v>
       </c>
       <c r="B63">
@@ -32403,7 +33007,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="545" t="s">
+      <c r="A64" s="1131" t="s">
         <v>308</v>
       </c>
       <c r="B64">
@@ -32480,7 +33084,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="545" t="s">
+      <c r="A65" s="1131" t="s">
         <v>309</v>
       </c>
       <c r="B65">
@@ -32557,7 +33161,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="545" t="s">
+      <c r="A66" s="1131" t="s">
         <v>310</v>
       </c>
       <c r="B66">
@@ -32634,7 +33238,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="545" t="s">
+      <c r="A67" s="1131" t="s">
         <v>311</v>
       </c>
       <c r="B67">
@@ -32711,7 +33315,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="545" t="s">
+      <c r="A68" s="1131" t="s">
         <v>312</v>
       </c>
       <c r="B68">
@@ -32788,7 +33392,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="545" t="s">
+      <c r="A69" s="1131" t="s">
         <v>313</v>
       </c>
       <c r="B69">
@@ -32865,7 +33469,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="545" t="s">
+      <c r="A70" s="1131" t="s">
         <v>314</v>
       </c>
       <c r="B70">
@@ -32942,7 +33546,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="545" t="s">
+      <c r="A71" s="1131" t="s">
         <v>315</v>
       </c>
       <c r="B71">
@@ -33019,7 +33623,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="545" t="s">
+      <c r="A72" s="1131" t="s">
         <v>316</v>
       </c>
       <c r="B72">
@@ -33096,7 +33700,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="545" t="s">
+      <c r="A73" s="1131" t="s">
         <v>317</v>
       </c>
       <c r="B73">
@@ -33173,7 +33777,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="545" t="s">
+      <c r="A74" s="1131" t="s">
         <v>318</v>
       </c>
       <c r="B74">
@@ -33250,7 +33854,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="545" t="s">
+      <c r="A75" s="1131" t="s">
         <v>319</v>
       </c>
       <c r="B75">
@@ -33327,7 +33931,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="545" t="s">
+      <c r="A76" s="1131" t="s">
         <v>320</v>
       </c>
       <c r="B76">
@@ -33404,7 +34008,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="545" t="s">
+      <c r="A77" s="1131" t="s">
         <v>321</v>
       </c>
       <c r="B77">
@@ -33481,7 +34085,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="545" t="s">
+      <c r="A78" s="1131" t="s">
         <v>322</v>
       </c>
       <c r="B78">
@@ -33558,7 +34162,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="545" t="s">
+      <c r="A79" s="1131" t="s">
         <v>323</v>
       </c>
       <c r="B79">
@@ -33635,7 +34239,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="545" t="s">
+      <c r="A80" s="1131" t="s">
         <v>324</v>
       </c>
       <c r="B80">
@@ -33712,7 +34316,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="545" t="s">
+      <c r="A81" s="1131" t="s">
         <v>325</v>
       </c>
       <c r="B81">
@@ -33789,7 +34393,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="545" t="s">
+      <c r="A82" s="1131" t="s">
         <v>326</v>
       </c>
       <c r="B82">
@@ -33866,7 +34470,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="545" t="s">
+      <c r="A83" s="1131" t="s">
         <v>327</v>
       </c>
       <c r="B83">
@@ -33943,7 +34547,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="545" t="s">
+      <c r="A84" s="1131" t="s">
         <v>328</v>
       </c>
       <c r="B84">
@@ -34020,7 +34624,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="545" t="s">
+      <c r="A85" s="1131" t="s">
         <v>329</v>
       </c>
       <c r="B85">
@@ -34097,7 +34701,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="545" t="s">
+      <c r="A86" s="1131" t="s">
         <v>330</v>
       </c>
       <c r="B86">
@@ -34174,7 +34778,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="545" t="s">
+      <c r="A87" s="1131" t="s">
         <v>331</v>
       </c>
       <c r="B87">
@@ -34251,7 +34855,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="545" t="s">
+      <c r="A88" s="1131" t="s">
         <v>332</v>
       </c>
       <c r="B88">
@@ -34328,7 +34932,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="545" t="s">
+      <c r="A89" s="1131" t="s">
         <v>333</v>
       </c>
       <c r="B89">
@@ -34405,7 +35009,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="545" t="s">
+      <c r="A90" s="1131" t="s">
         <v>334</v>
       </c>
       <c r="B90">
@@ -34482,7 +35086,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="545" t="s">
+      <c r="A91" s="1131" t="s">
         <v>335</v>
       </c>
       <c r="B91">
@@ -34559,7 +35163,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="545" t="s">
+      <c r="A92" s="1131" t="s">
         <v>336</v>
       </c>
       <c r="B92">
@@ -34636,7 +35240,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="545" t="s">
+      <c r="A93" s="1131" t="s">
         <v>337</v>
       </c>
       <c r="B93">
@@ -34713,7 +35317,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="545" t="s">
+      <c r="A94" s="1131" t="s">
         <v>338</v>
       </c>
       <c r="B94">
@@ -34790,7 +35394,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="545" t="s">
+      <c r="A95" s="1131" t="s">
         <v>339</v>
       </c>
       <c r="B95">
@@ -34867,7 +35471,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="545" t="s">
+      <c r="A96" s="1131" t="s">
         <v>340</v>
       </c>
       <c r="B96">
@@ -34944,7 +35548,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="545" t="s">
+      <c r="A97" s="1131" t="s">
         <v>341</v>
       </c>
       <c r="B97">
@@ -35021,7 +35625,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="545" t="s">
+      <c r="A98" s="1131" t="s">
         <v>342</v>
       </c>
       <c r="B98">
@@ -35098,7 +35702,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="545" t="s">
+      <c r="A99" s="1131" t="s">
         <v>343</v>
       </c>
       <c r="B99">
@@ -35175,7 +35779,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="545" t="s">
+      <c r="A100" s="1131" t="s">
         <v>344</v>
       </c>
       <c r="B100">
@@ -35252,7 +35856,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="545" t="s">
+      <c r="A101" s="1131" t="s">
         <v>345</v>
       </c>
       <c r="B101">
@@ -35329,7 +35933,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="545" t="s">
+      <c r="A102" s="1131" t="s">
         <v>346</v>
       </c>
       <c r="B102">
@@ -35406,7 +36010,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="545" t="s">
+      <c r="A103" s="1131" t="s">
         <v>347</v>
       </c>
       <c r="B103">
@@ -35483,7 +36087,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="545" t="s">
+      <c r="A104" s="1131" t="s">
         <v>348</v>
       </c>
       <c r="B104">
@@ -35560,7 +36164,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="545" t="s">
+      <c r="A105" s="1131" t="s">
         <v>349</v>
       </c>
       <c r="B105">
@@ -35637,7 +36241,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="545" t="s">
+      <c r="A106" s="1131" t="s">
         <v>350</v>
       </c>
       <c r="B106">
@@ -35714,7 +36318,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="545" t="s">
+      <c r="A107" s="1131" t="s">
         <v>351</v>
       </c>
       <c r="B107">
@@ -35791,7 +36395,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="545" t="s">
+      <c r="A108" s="1131" t="s">
         <v>352</v>
       </c>
       <c r="B108">
@@ -35868,7 +36472,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="545" t="s">
+      <c r="A109" s="1131" t="s">
         <v>353</v>
       </c>
       <c r="B109">
@@ -35945,7 +36549,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="545" t="s">
+      <c r="A110" s="1131" t="s">
         <v>354</v>
       </c>
       <c r="B110">
@@ -36022,7 +36626,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="545" t="s">
+      <c r="A111" s="1131" t="s">
         <v>355</v>
       </c>
       <c r="B111">
@@ -36099,7 +36703,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="545" t="s">
+      <c r="A112" s="1131" t="s">
         <v>356</v>
       </c>
       <c r="B112">
@@ -36176,7 +36780,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="545" t="s">
+      <c r="A113" s="1131" t="s">
         <v>357</v>
       </c>
       <c r="B113">
@@ -36253,7 +36857,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="545" t="s">
+      <c r="A114" s="1131" t="s">
         <v>358</v>
       </c>
       <c r="B114">
@@ -36330,7 +36934,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="545" t="s">
+      <c r="A115" s="1131" t="s">
         <v>359</v>
       </c>
       <c r="B115">
@@ -36407,7 +37011,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="545" t="s">
+      <c r="A116" s="1131" t="s">
         <v>360</v>
       </c>
       <c r="B116">
@@ -36484,7 +37088,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="545" t="s">
+      <c r="A117" s="1131" t="s">
         <v>361</v>
       </c>
       <c r="B117">
@@ -36561,7 +37165,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="545" t="s">
+      <c r="A118" s="1131" t="s">
         <v>362</v>
       </c>
       <c r="B118">
@@ -36638,7 +37242,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="545" t="s">
+      <c r="A119" s="1131" t="s">
         <v>363</v>
       </c>
       <c r="B119">
@@ -36715,7 +37319,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="545" t="s">
+      <c r="A120" s="1131" t="s">
         <v>364</v>
       </c>
       <c r="B120">
@@ -36792,7 +37396,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="545" t="s">
+      <c r="A121" s="1131" t="s">
         <v>365</v>
       </c>
       <c r="B121">
@@ -36869,7 +37473,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="545" t="s">
+      <c r="A122" s="1131" t="s">
         <v>366</v>
       </c>
       <c r="B122">
@@ -36946,7 +37550,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="545" t="s">
+      <c r="A123" s="1131" t="s">
         <v>367</v>
       </c>
       <c r="B123">
@@ -37023,7 +37627,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="545" t="s">
+      <c r="A124" s="1131" t="s">
         <v>368</v>
       </c>
       <c r="B124">
@@ -37100,7 +37704,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="545" t="s">
+      <c r="A125" s="1131" t="s">
         <v>369</v>
       </c>
       <c r="B125">
@@ -37177,7 +37781,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="545" t="s">
+      <c r="A126" s="1131" t="s">
         <v>370</v>
       </c>
       <c r="B126">
@@ -37254,7 +37858,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="545" t="s">
+      <c r="A127" s="1131" t="s">
         <v>371</v>
       </c>
       <c r="B127">
@@ -37331,7 +37935,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="545" t="s">
+      <c r="A128" s="1131" t="s">
         <v>372</v>
       </c>
       <c r="B128">
@@ -37408,7 +38012,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="545" t="s">
+      <c r="A129" s="1131" t="s">
         <v>373</v>
       </c>
       <c r="B129">
@@ -37485,7 +38089,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="545" t="s">
+      <c r="A130" s="1131" t="s">
         <v>374</v>
       </c>
       <c r="B130">
@@ -37562,7 +38166,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="545" t="s">
+      <c r="A131" s="1131" t="s">
         <v>375</v>
       </c>
       <c r="B131">
@@ -37639,7 +38243,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="545" t="s">
+      <c r="A132" s="1131" t="s">
         <v>376</v>
       </c>
       <c r="B132">
@@ -37716,7 +38320,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="545" t="s">
+      <c r="A133" s="1131" t="s">
         <v>377</v>
       </c>
       <c r="B133">
@@ -37793,7 +38397,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="545" t="s">
+      <c r="A134" s="1131" t="s">
         <v>378</v>
       </c>
       <c r="B134">
@@ -37870,7 +38474,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="545" t="s">
+      <c r="A135" s="1131" t="s">
         <v>379</v>
       </c>
       <c r="B135">
@@ -37947,7 +38551,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="545" t="s">
+      <c r="A136" s="1131" t="s">
         <v>380</v>
       </c>
       <c r="B136">
@@ -38024,7 +38628,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="545" t="s">
+      <c r="A137" s="1131" t="s">
         <v>381</v>
       </c>
       <c r="B137">
@@ -38101,7 +38705,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="545" t="s">
+      <c r="A138" s="1131" t="s">
         <v>382</v>
       </c>
       <c r="B138">
@@ -38178,7 +38782,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="545" t="s">
+      <c r="A139" s="1131" t="s">
         <v>383</v>
       </c>
       <c r="B139">
@@ -38255,7 +38859,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="545" t="s">
+      <c r="A140" s="1131" t="s">
         <v>384</v>
       </c>
       <c r="B140">
@@ -38332,7 +38936,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="545" t="s">
+      <c r="A141" s="1131" t="s">
         <v>385</v>
       </c>
       <c r="B141">
@@ -38409,7 +39013,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="545" t="s">
+      <c r="A142" s="1131" t="s">
         <v>386</v>
       </c>
       <c r="B142">
@@ -38486,7 +39090,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="545" t="s">
+      <c r="A143" s="1131" t="s">
         <v>387</v>
       </c>
       <c r="B143">
@@ -38563,7 +39167,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="545" t="s">
+      <c r="A144" s="1131" t="s">
         <v>388</v>
       </c>
       <c r="B144">
@@ -38640,7 +39244,7 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="545" t="s">
+      <c r="A145" s="1131" t="s">
         <v>389</v>
       </c>
       <c r="B145">
@@ -38717,7 +39321,7 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="545" t="s">
+      <c r="A146" s="1131" t="s">
         <v>390</v>
       </c>
       <c r="B146">
@@ -38794,7 +39398,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="545" t="s">
+      <c r="A147" s="1131" t="s">
         <v>391</v>
       </c>
       <c r="B147">
@@ -38871,7 +39475,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="545" t="s">
+      <c r="A148" s="1131" t="s">
         <v>392</v>
       </c>
       <c r="B148">
@@ -38948,7 +39552,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="545" t="s">
+      <c r="A149" s="1131" t="s">
         <v>393</v>
       </c>
       <c r="B149">
@@ -39025,7 +39629,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="545" t="s">
+      <c r="A150" s="1131" t="s">
         <v>394</v>
       </c>
       <c r="B150">
@@ -39102,7 +39706,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="545" t="s">
+      <c r="A151" s="1131" t="s">
         <v>395</v>
       </c>
       <c r="B151">
@@ -39179,7 +39783,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="545" t="s">
+      <c r="A152" s="1131" t="s">
         <v>396</v>
       </c>
       <c r="B152">
@@ -39256,7 +39860,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="545" t="s">
+      <c r="A153" s="1131" t="s">
         <v>397</v>
       </c>
       <c r="B153">
@@ -39333,7 +39937,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="545" t="s">
+      <c r="A154" s="1131" t="s">
         <v>398</v>
       </c>
       <c r="B154">
@@ -39410,7 +40014,7 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="545" t="s">
+      <c r="A155" s="1131" t="s">
         <v>399</v>
       </c>
       <c r="B155">
@@ -39487,7 +40091,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="545" t="s">
+      <c r="A156" s="1131" t="s">
         <v>400</v>
       </c>
       <c r="B156">
@@ -39564,7 +40168,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="545" t="s">
+      <c r="A157" s="1131" t="s">
         <v>401</v>
       </c>
       <c r="B157">
@@ -39641,7 +40245,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="545" t="s">
+      <c r="A158" s="1131" t="s">
         <v>402</v>
       </c>
       <c r="B158">
@@ -39718,7 +40322,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="545" t="s">
+      <c r="A159" s="1131" t="s">
         <v>403</v>
       </c>
       <c r="B159">
@@ -39795,7 +40399,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="545" t="s">
+      <c r="A160" s="1131" t="s">
         <v>404</v>
       </c>
       <c r="B160">
@@ -39872,7 +40476,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="545" t="s">
+      <c r="A161" s="1131" t="s">
         <v>405</v>
       </c>
       <c r="B161">
@@ -39949,7 +40553,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="545" t="s">
+      <c r="A162" s="1131" t="s">
         <v>406</v>
       </c>
       <c r="B162">
@@ -40026,7 +40630,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="545" t="s">
+      <c r="A163" s="1131" t="s">
         <v>407</v>
       </c>
       <c r="B163">
@@ -40103,7 +40707,7 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="545" t="s">
+      <c r="A164" s="1131" t="s">
         <v>408</v>
       </c>
       <c r="B164">
@@ -40180,7 +40784,7 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="545" t="s">
+      <c r="A165" s="1131" t="s">
         <v>409</v>
       </c>
       <c r="B165">
@@ -40257,7 +40861,7 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="545" t="s">
+      <c r="A166" s="1131" t="s">
         <v>410</v>
       </c>
       <c r="B166">
@@ -40334,7 +40938,7 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="545" t="s">
+      <c r="A167" s="1131" t="s">
         <v>411</v>
       </c>
       <c r="B167">
@@ -40411,7 +41015,7 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="545" t="s">
+      <c r="A168" s="1131" t="s">
         <v>412</v>
       </c>
       <c r="B168">
@@ -40488,7 +41092,7 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="545" t="s">
+      <c r="A169" s="1131" t="s">
         <v>413</v>
       </c>
       <c r="B169">
@@ -40565,7 +41169,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="545" t="s">
+      <c r="A170" s="1131" t="s">
         <v>414</v>
       </c>
       <c r="B170">
@@ -40642,7 +41246,7 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="545" t="s">
+      <c r="A171" s="1131" t="s">
         <v>415</v>
       </c>
       <c r="B171">
@@ -40719,7 +41323,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="545" t="s">
+      <c r="A172" s="1131" t="s">
         <v>416</v>
       </c>
       <c r="B172">
@@ -40796,7 +41400,7 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="545" t="s">
+      <c r="A173" s="1131" t="s">
         <v>417</v>
       </c>
       <c r="B173">
@@ -40873,7 +41477,7 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="545" t="s">
+      <c r="A174" s="1131" t="s">
         <v>418</v>
       </c>
       <c r="B174">
@@ -40950,7 +41554,7 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="545" t="s">
+      <c r="A175" s="1131" t="s">
         <v>419</v>
       </c>
       <c r="B175">
@@ -41027,7 +41631,7 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="545" t="s">
+      <c r="A176" s="1131" t="s">
         <v>420</v>
       </c>
       <c r="B176">
@@ -41104,7 +41708,7 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="545" t="s">
+      <c r="A177" s="1131" t="s">
         <v>421</v>
       </c>
       <c r="B177">
@@ -41181,7 +41785,7 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="545" t="s">
+      <c r="A178" s="1131" t="s">
         <v>422</v>
       </c>
       <c r="B178">
@@ -41258,7 +41862,7 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="545" t="s">
+      <c r="A179" s="1131" t="s">
         <v>423</v>
       </c>
       <c r="B179">
@@ -41335,7 +41939,7 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="545" t="s">
+      <c r="A180" s="1131" t="s">
         <v>424</v>
       </c>
       <c r="B180">
@@ -41412,7 +42016,7 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="545" t="s">
+      <c r="A181" s="1131" t="s">
         <v>425</v>
       </c>
       <c r="B181">
@@ -41489,7 +42093,7 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="545" t="s">
+      <c r="A182" s="1131" t="s">
         <v>426</v>
       </c>
       <c r="B182">
@@ -41566,7 +42170,7 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="545" t="s">
+      <c r="A183" s="1131" t="s">
         <v>427</v>
       </c>
       <c r="B183">
@@ -41643,7 +42247,7 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="545" t="s">
+      <c r="A184" s="1131" t="s">
         <v>428</v>
       </c>
       <c r="B184">
@@ -41720,7 +42324,7 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="545" t="s">
+      <c r="A185" s="1131" t="s">
         <v>429</v>
       </c>
       <c r="B185">
@@ -41797,7 +42401,7 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="545" t="s">
+      <c r="A186" s="1131" t="s">
         <v>430</v>
       </c>
       <c r="B186">
@@ -41874,7 +42478,7 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="545" t="s">
+      <c r="A187" s="1131" t="s">
         <v>431</v>
       </c>
       <c r="B187">
@@ -41951,7 +42555,7 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="545" t="s">
+      <c r="A188" s="1131" t="s">
         <v>432</v>
       </c>
       <c r="B188">
@@ -42028,7 +42632,7 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="545" t="s">
+      <c r="A189" s="1131" t="s">
         <v>433</v>
       </c>
       <c r="B189">
@@ -42105,7 +42709,7 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="545" t="s">
+      <c r="A190" s="1131" t="s">
         <v>434</v>
       </c>
       <c r="B190">
@@ -42182,7 +42786,7 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="545" t="s">
+      <c r="A191" s="1131" t="s">
         <v>435</v>
       </c>
       <c r="B191">
@@ -42259,7 +42863,7 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="545" t="s">
+      <c r="A192" s="1131" t="s">
         <v>436</v>
       </c>
       <c r="B192">
@@ -42336,7 +42940,7 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="545" t="s">
+      <c r="A193" s="1131" t="s">
         <v>437</v>
       </c>
       <c r="B193">
@@ -42413,7 +43017,7 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="545" t="s">
+      <c r="A194" s="1131" t="s">
         <v>438</v>
       </c>
       <c r="B194">
@@ -42490,7 +43094,7 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="545" t="s">
+      <c r="A195" s="1131" t="s">
         <v>439</v>
       </c>
       <c r="B195">
@@ -42567,7 +43171,7 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="545" t="s">
+      <c r="A196" s="1131" t="s">
         <v>440</v>
       </c>
       <c r="B196">
@@ -42644,7 +43248,7 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="545" t="s">
+      <c r="A197" s="1131" t="s">
         <v>441</v>
       </c>
       <c r="B197">
@@ -42721,7 +43325,7 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="545" t="s">
+      <c r="A198" s="1131" t="s">
         <v>442</v>
       </c>
       <c r="B198">
@@ -42798,7 +43402,7 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="545" t="s">
+      <c r="A199" s="1131" t="s">
         <v>443</v>
       </c>
       <c r="B199">
@@ -42875,7 +43479,7 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="545" t="s">
+      <c r="A200" s="1131" t="s">
         <v>444</v>
       </c>
       <c r="B200">
@@ -42952,7 +43556,7 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="545" t="s">
+      <c r="A201" s="1131" t="s">
         <v>445</v>
       </c>
       <c r="B201">
@@ -43029,7 +43633,7 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="545" t="s">
+      <c r="A202" s="1131" t="s">
         <v>446</v>
       </c>
       <c r="B202">
@@ -43106,7 +43710,7 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="545" t="s">
+      <c r="A203" s="1131" t="s">
         <v>447</v>
       </c>
       <c r="B203">
@@ -43183,7 +43787,7 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="545" t="s">
+      <c r="A204" s="1131" t="s">
         <v>448</v>
       </c>
       <c r="B204">
@@ -43260,7 +43864,7 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="545" t="s">
+      <c r="A205" s="1131" t="s">
         <v>449</v>
       </c>
       <c r="B205">
@@ -43337,7 +43941,7 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="545" t="s">
+      <c r="A206" s="1131" t="s">
         <v>450</v>
       </c>
       <c r="B206">
@@ -43450,84 +44054,84 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="543" t="s">
+      <c r="A1" s="1129" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="423" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="429" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="435" t="s">
+      <c r="B1" s="1009" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1015" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1021" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="441" t="s">
+      <c r="E1" s="1027" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="447" t="s">
+      <c r="F1" s="1033" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="453" t="s">
+      <c r="G1" s="1039" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="459" t="s">
+      <c r="H1" s="1045" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="465" t="s">
+      <c r="I1" s="1051" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="471" t="s">
+      <c r="J1" s="1057" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="477" t="s">
+      <c r="K1" s="1063" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="483" t="s">
+      <c r="L1" s="1069" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="489" t="s">
+      <c r="M1" s="1075" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="495" t="s">
+      <c r="N1" s="1081" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="501" t="s">
+      <c r="O1" s="1087" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="507" t="s">
+      <c r="P1" s="1093" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="513" t="s">
+      <c r="Q1" s="1099" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="519" t="s">
+      <c r="R1" s="1105" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="525" t="s">
+      <c r="S1" s="1111" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="531" t="s">
+      <c r="T1" s="1117" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="537" t="s">
+      <c r="U1" s="1123" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="555" t="s">
+      <c r="V1" s="1141" t="s">
         <v>225</v>
       </c>
-      <c r="W1" s="561" t="s">
+      <c r="W1" s="1147" t="s">
         <v>226</v>
       </c>
-      <c r="X1" s="567" t="s">
+      <c r="X1" s="1153" t="s">
         <v>227</v>
       </c>
-      <c r="Y1" s="573" t="s">
+      <c r="Y1" s="1159" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="543" t="s">
+      <c r="A2" s="1129" t="s">
         <v>246</v>
       </c>
       <c r="B2">
@@ -43604,7 +44208,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="543" t="s">
+      <c r="A3" s="1129" t="s">
         <v>247</v>
       </c>
       <c r="B3">
@@ -43681,7 +44285,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="543" t="s">
+      <c r="A4" s="1129" t="s">
         <v>248</v>
       </c>
       <c r="B4">
@@ -43758,7 +44362,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="543" t="s">
+      <c r="A5" s="1129" t="s">
         <v>249</v>
       </c>
       <c r="B5">
@@ -43835,7 +44439,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="543" t="s">
+      <c r="A6" s="1129" t="s">
         <v>250</v>
       </c>
       <c r="B6">
@@ -43912,7 +44516,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="543" t="s">
+      <c r="A7" s="1129" t="s">
         <v>251</v>
       </c>
       <c r="B7">
@@ -43989,7 +44593,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="543" t="s">
+      <c r="A8" s="1129" t="s">
         <v>252</v>
       </c>
       <c r="B8">
@@ -44066,7 +44670,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="543" t="s">
+      <c r="A9" s="1129" t="s">
         <v>253</v>
       </c>
       <c r="B9">
@@ -44143,7 +44747,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="543" t="s">
+      <c r="A10" s="1129" t="s">
         <v>254</v>
       </c>
       <c r="B10">
@@ -44220,7 +44824,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="543" t="s">
+      <c r="A11" s="1129" t="s">
         <v>255</v>
       </c>
       <c r="B11">
@@ -44297,7 +44901,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="543" t="s">
+      <c r="A12" s="1129" t="s">
         <v>256</v>
       </c>
       <c r="B12">
@@ -44374,7 +44978,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="543" t="s">
+      <c r="A13" s="1129" t="s">
         <v>257</v>
       </c>
       <c r="B13">
@@ -44451,7 +45055,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="543" t="s">
+      <c r="A14" s="1129" t="s">
         <v>258</v>
       </c>
       <c r="B14">
@@ -44528,7 +45132,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="543" t="s">
+      <c r="A15" s="1129" t="s">
         <v>259</v>
       </c>
       <c r="B15">
@@ -44605,7 +45209,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="543" t="s">
+      <c r="A16" s="1129" t="s">
         <v>260</v>
       </c>
       <c r="B16">
@@ -44682,7 +45286,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="543" t="s">
+      <c r="A17" s="1129" t="s">
         <v>261</v>
       </c>
       <c r="B17">
@@ -44759,7 +45363,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="543" t="s">
+      <c r="A18" s="1129" t="s">
         <v>262</v>
       </c>
       <c r="B18">
@@ -44836,7 +45440,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="543" t="s">
+      <c r="A19" s="1129" t="s">
         <v>263</v>
       </c>
       <c r="B19">
@@ -44913,7 +45517,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="543" t="s">
+      <c r="A20" s="1129" t="s">
         <v>264</v>
       </c>
       <c r="B20">
@@ -44990,7 +45594,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="543" t="s">
+      <c r="A21" s="1129" t="s">
         <v>265</v>
       </c>
       <c r="B21">
@@ -45067,7 +45671,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="543" t="s">
+      <c r="A22" s="1129" t="s">
         <v>266</v>
       </c>
       <c r="B22">
@@ -45144,7 +45748,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="543" t="s">
+      <c r="A23" s="1129" t="s">
         <v>267</v>
       </c>
       <c r="B23">
@@ -45221,7 +45825,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="543" t="s">
+      <c r="A24" s="1129" t="s">
         <v>268</v>
       </c>
       <c r="B24">
@@ -45298,7 +45902,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="543" t="s">
+      <c r="A25" s="1129" t="s">
         <v>269</v>
       </c>
       <c r="B25">
@@ -45375,7 +45979,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="543" t="s">
+      <c r="A26" s="1129" t="s">
         <v>270</v>
       </c>
       <c r="B26">
@@ -45452,7 +46056,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="543" t="s">
+      <c r="A27" s="1129" t="s">
         <v>271</v>
       </c>
       <c r="B27">
@@ -45529,7 +46133,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="543" t="s">
+      <c r="A28" s="1129" t="s">
         <v>272</v>
       </c>
       <c r="B28">
@@ -45606,7 +46210,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="543" t="s">
+      <c r="A29" s="1129" t="s">
         <v>273</v>
       </c>
       <c r="B29">
@@ -45683,7 +46287,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="543" t="s">
+      <c r="A30" s="1129" t="s">
         <v>274</v>
       </c>
       <c r="B30">
@@ -45760,7 +46364,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="543" t="s">
+      <c r="A31" s="1129" t="s">
         <v>275</v>
       </c>
       <c r="B31">
@@ -45837,7 +46441,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="543" t="s">
+      <c r="A32" s="1129" t="s">
         <v>276</v>
       </c>
       <c r="B32">
@@ -45914,7 +46518,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="543" t="s">
+      <c r="A33" s="1129" t="s">
         <v>277</v>
       </c>
       <c r="B33">
@@ -45991,7 +46595,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="543" t="s">
+      <c r="A34" s="1129" t="s">
         <v>278</v>
       </c>
       <c r="B34">
@@ -46068,7 +46672,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="543" t="s">
+      <c r="A35" s="1129" t="s">
         <v>279</v>
       </c>
       <c r="B35">
@@ -46145,7 +46749,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="543" t="s">
+      <c r="A36" s="1129" t="s">
         <v>280</v>
       </c>
       <c r="B36">
@@ -46222,7 +46826,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="543" t="s">
+      <c r="A37" s="1129" t="s">
         <v>281</v>
       </c>
       <c r="B37">
@@ -46299,7 +46903,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="543" t="s">
+      <c r="A38" s="1129" t="s">
         <v>282</v>
       </c>
       <c r="B38">
@@ -46376,7 +46980,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="543" t="s">
+      <c r="A39" s="1129" t="s">
         <v>283</v>
       </c>
       <c r="B39">
@@ -46453,7 +47057,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="543" t="s">
+      <c r="A40" s="1129" t="s">
         <v>284</v>
       </c>
       <c r="B40">
@@ -46530,7 +47134,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="543" t="s">
+      <c r="A41" s="1129" t="s">
         <v>285</v>
       </c>
       <c r="B41">
@@ -46607,7 +47211,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="543" t="s">
+      <c r="A42" s="1129" t="s">
         <v>286</v>
       </c>
       <c r="B42">
@@ -46684,7 +47288,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="543" t="s">
+      <c r="A43" s="1129" t="s">
         <v>287</v>
       </c>
       <c r="B43">
@@ -46761,7 +47365,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="543" t="s">
+      <c r="A44" s="1129" t="s">
         <v>288</v>
       </c>
       <c r="B44">
@@ -46838,7 +47442,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="543" t="s">
+      <c r="A45" s="1129" t="s">
         <v>289</v>
       </c>
       <c r="B45">
@@ -46915,7 +47519,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="543" t="s">
+      <c r="A46" s="1129" t="s">
         <v>290</v>
       </c>
       <c r="B46">
@@ -46992,7 +47596,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="543" t="s">
+      <c r="A47" s="1129" t="s">
         <v>291</v>
       </c>
       <c r="B47">
@@ -47069,7 +47673,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="543" t="s">
+      <c r="A48" s="1129" t="s">
         <v>292</v>
       </c>
       <c r="B48">
@@ -47146,7 +47750,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="543" t="s">
+      <c r="A49" s="1129" t="s">
         <v>293</v>
       </c>
       <c r="B49">
@@ -47223,7 +47827,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="543" t="s">
+      <c r="A50" s="1129" t="s">
         <v>294</v>
       </c>
       <c r="B50">
@@ -47300,7 +47904,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="543" t="s">
+      <c r="A51" s="1129" t="s">
         <v>295</v>
       </c>
       <c r="B51">
@@ -47377,7 +47981,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="543" t="s">
+      <c r="A52" s="1129" t="s">
         <v>296</v>
       </c>
       <c r="B52">
@@ -47454,7 +48058,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="543" t="s">
+      <c r="A53" s="1129" t="s">
         <v>297</v>
       </c>
       <c r="B53">
@@ -47531,7 +48135,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="543" t="s">
+      <c r="A54" s="1129" t="s">
         <v>298</v>
       </c>
       <c r="B54">
@@ -47608,7 +48212,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="543" t="s">
+      <c r="A55" s="1129" t="s">
         <v>299</v>
       </c>
       <c r="B55">
@@ -47685,7 +48289,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="543" t="s">
+      <c r="A56" s="1129" t="s">
         <v>300</v>
       </c>
       <c r="B56">
@@ -47762,7 +48366,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="543" t="s">
+      <c r="A57" s="1129" t="s">
         <v>301</v>
       </c>
       <c r="B57">
@@ -47839,7 +48443,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="543" t="s">
+      <c r="A58" s="1129" t="s">
         <v>302</v>
       </c>
       <c r="B58">
@@ -47916,7 +48520,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="543" t="s">
+      <c r="A59" s="1129" t="s">
         <v>303</v>
       </c>
       <c r="B59">
@@ -47993,7 +48597,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="543" t="s">
+      <c r="A60" s="1129" t="s">
         <v>304</v>
       </c>
       <c r="B60">
@@ -48070,7 +48674,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="543" t="s">
+      <c r="A61" s="1129" t="s">
         <v>305</v>
       </c>
       <c r="B61">
@@ -48147,7 +48751,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="543" t="s">
+      <c r="A62" s="1129" t="s">
         <v>306</v>
       </c>
       <c r="B62">
@@ -48224,7 +48828,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="543" t="s">
+      <c r="A63" s="1129" t="s">
         <v>307</v>
       </c>
       <c r="B63">
@@ -48301,7 +48905,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="543" t="s">
+      <c r="A64" s="1129" t="s">
         <v>308</v>
       </c>
       <c r="B64">
@@ -48378,7 +48982,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="543" t="s">
+      <c r="A65" s="1129" t="s">
         <v>309</v>
       </c>
       <c r="B65">
@@ -48455,7 +49059,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="543" t="s">
+      <c r="A66" s="1129" t="s">
         <v>310</v>
       </c>
       <c r="B66">
@@ -48532,7 +49136,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="543" t="s">
+      <c r="A67" s="1129" t="s">
         <v>311</v>
       </c>
       <c r="B67">
@@ -48609,7 +49213,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="543" t="s">
+      <c r="A68" s="1129" t="s">
         <v>312</v>
       </c>
       <c r="B68">
@@ -48686,7 +49290,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="543" t="s">
+      <c r="A69" s="1129" t="s">
         <v>313</v>
       </c>
       <c r="B69">
@@ -48763,7 +49367,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="543" t="s">
+      <c r="A70" s="1129" t="s">
         <v>314</v>
       </c>
       <c r="B70">
@@ -48840,7 +49444,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="543" t="s">
+      <c r="A71" s="1129" t="s">
         <v>315</v>
       </c>
       <c r="B71">
@@ -48917,7 +49521,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="543" t="s">
+      <c r="A72" s="1129" t="s">
         <v>316</v>
       </c>
       <c r="B72">
@@ -48994,7 +49598,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="543" t="s">
+      <c r="A73" s="1129" t="s">
         <v>317</v>
       </c>
       <c r="B73">
@@ -49071,7 +49675,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="543" t="s">
+      <c r="A74" s="1129" t="s">
         <v>318</v>
       </c>
       <c r="B74">
@@ -49148,7 +49752,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="543" t="s">
+      <c r="A75" s="1129" t="s">
         <v>319</v>
       </c>
       <c r="B75">
@@ -49225,7 +49829,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="543" t="s">
+      <c r="A76" s="1129" t="s">
         <v>320</v>
       </c>
       <c r="B76">
@@ -49302,7 +49906,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="543" t="s">
+      <c r="A77" s="1129" t="s">
         <v>321</v>
       </c>
       <c r="B77">
@@ -49379,7 +49983,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="543" t="s">
+      <c r="A78" s="1129" t="s">
         <v>322</v>
       </c>
       <c r="B78">
@@ -49456,7 +50060,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="543" t="s">
+      <c r="A79" s="1129" t="s">
         <v>323</v>
       </c>
       <c r="B79">
@@ -49533,7 +50137,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="543" t="s">
+      <c r="A80" s="1129" t="s">
         <v>324</v>
       </c>
       <c r="B80">
@@ -49610,7 +50214,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="543" t="s">
+      <c r="A81" s="1129" t="s">
         <v>325</v>
       </c>
       <c r="B81">
@@ -49687,7 +50291,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="543" t="s">
+      <c r="A82" s="1129" t="s">
         <v>326</v>
       </c>
       <c r="B82">
@@ -49764,7 +50368,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="543" t="s">
+      <c r="A83" s="1129" t="s">
         <v>327</v>
       </c>
       <c r="B83">
@@ -49841,7 +50445,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="543" t="s">
+      <c r="A84" s="1129" t="s">
         <v>328</v>
       </c>
       <c r="B84">
@@ -49918,7 +50522,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="543" t="s">
+      <c r="A85" s="1129" t="s">
         <v>329</v>
       </c>
       <c r="B85">
@@ -49995,7 +50599,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="543" t="s">
+      <c r="A86" s="1129" t="s">
         <v>330</v>
       </c>
       <c r="B86">
@@ -50072,7 +50676,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="543" t="s">
+      <c r="A87" s="1129" t="s">
         <v>331</v>
       </c>
       <c r="B87">
@@ -50149,7 +50753,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="543" t="s">
+      <c r="A88" s="1129" t="s">
         <v>332</v>
       </c>
       <c r="B88">
@@ -50226,7 +50830,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="543" t="s">
+      <c r="A89" s="1129" t="s">
         <v>333</v>
       </c>
       <c r="B89">
@@ -50303,7 +50907,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="543" t="s">
+      <c r="A90" s="1129" t="s">
         <v>334</v>
       </c>
       <c r="B90">
@@ -50380,7 +50984,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="543" t="s">
+      <c r="A91" s="1129" t="s">
         <v>335</v>
       </c>
       <c r="B91">
@@ -50457,7 +51061,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="543" t="s">
+      <c r="A92" s="1129" t="s">
         <v>336</v>
       </c>
       <c r="B92">
@@ -50534,7 +51138,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="543" t="s">
+      <c r="A93" s="1129" t="s">
         <v>337</v>
       </c>
       <c r="B93">
@@ -50611,7 +51215,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="543" t="s">
+      <c r="A94" s="1129" t="s">
         <v>338</v>
       </c>
       <c r="B94">
@@ -50688,7 +51292,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="543" t="s">
+      <c r="A95" s="1129" t="s">
         <v>339</v>
       </c>
       <c r="B95">
@@ -50765,7 +51369,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="543" t="s">
+      <c r="A96" s="1129" t="s">
         <v>340</v>
       </c>
       <c r="B96">
@@ -50842,7 +51446,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="543" t="s">
+      <c r="A97" s="1129" t="s">
         <v>341</v>
       </c>
       <c r="B97">
@@ -50919,7 +51523,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="543" t="s">
+      <c r="A98" s="1129" t="s">
         <v>342</v>
       </c>
       <c r="B98">
@@ -50996,7 +51600,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="543" t="s">
+      <c r="A99" s="1129" t="s">
         <v>343</v>
       </c>
       <c r="B99">
@@ -51073,7 +51677,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="543" t="s">
+      <c r="A100" s="1129" t="s">
         <v>344</v>
       </c>
       <c r="B100">
@@ -51150,7 +51754,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="543" t="s">
+      <c r="A101" s="1129" t="s">
         <v>345</v>
       </c>
       <c r="B101">
@@ -51227,7 +51831,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="543" t="s">
+      <c r="A102" s="1129" t="s">
         <v>346</v>
       </c>
       <c r="B102">
@@ -51304,7 +51908,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="543" t="s">
+      <c r="A103" s="1129" t="s">
         <v>347</v>
       </c>
       <c r="B103">
@@ -51381,7 +51985,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="543" t="s">
+      <c r="A104" s="1129" t="s">
         <v>348</v>
       </c>
       <c r="B104">
@@ -51458,7 +52062,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="543" t="s">
+      <c r="A105" s="1129" t="s">
         <v>349</v>
       </c>
       <c r="B105">
@@ -51535,7 +52139,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="543" t="s">
+      <c r="A106" s="1129" t="s">
         <v>350</v>
       </c>
       <c r="B106">
@@ -51612,7 +52216,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="543" t="s">
+      <c r="A107" s="1129" t="s">
         <v>351</v>
       </c>
       <c r="B107">
@@ -51689,7 +52293,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="543" t="s">
+      <c r="A108" s="1129" t="s">
         <v>352</v>
       </c>
       <c r="B108">
@@ -51766,7 +52370,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="543" t="s">
+      <c r="A109" s="1129" t="s">
         <v>353</v>
       </c>
       <c r="B109">
@@ -51843,7 +52447,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="543" t="s">
+      <c r="A110" s="1129" t="s">
         <v>354</v>
       </c>
       <c r="B110">
@@ -51920,7 +52524,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="543" t="s">
+      <c r="A111" s="1129" t="s">
         <v>355</v>
       </c>
       <c r="B111">
@@ -51997,7 +52601,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="543" t="s">
+      <c r="A112" s="1129" t="s">
         <v>356</v>
       </c>
       <c r="B112">
@@ -52074,7 +52678,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="543" t="s">
+      <c r="A113" s="1129" t="s">
         <v>357</v>
       </c>
       <c r="B113">
@@ -52151,7 +52755,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="543" t="s">
+      <c r="A114" s="1129" t="s">
         <v>358</v>
       </c>
       <c r="B114">
@@ -52228,7 +52832,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="543" t="s">
+      <c r="A115" s="1129" t="s">
         <v>359</v>
       </c>
       <c r="B115">
@@ -52305,7 +52909,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="543" t="s">
+      <c r="A116" s="1129" t="s">
         <v>360</v>
       </c>
       <c r="B116">
@@ -52382,7 +52986,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="543" t="s">
+      <c r="A117" s="1129" t="s">
         <v>361</v>
       </c>
       <c r="B117">
@@ -52459,7 +53063,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="543" t="s">
+      <c r="A118" s="1129" t="s">
         <v>362</v>
       </c>
       <c r="B118">
@@ -52536,7 +53140,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="543" t="s">
+      <c r="A119" s="1129" t="s">
         <v>363</v>
       </c>
       <c r="B119">
@@ -52613,7 +53217,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="543" t="s">
+      <c r="A120" s="1129" t="s">
         <v>364</v>
       </c>
       <c r="B120">
@@ -52690,7 +53294,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="543" t="s">
+      <c r="A121" s="1129" t="s">
         <v>365</v>
       </c>
       <c r="B121">
@@ -52767,7 +53371,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="543" t="s">
+      <c r="A122" s="1129" t="s">
         <v>366</v>
       </c>
       <c r="B122">
@@ -52844,7 +53448,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="543" t="s">
+      <c r="A123" s="1129" t="s">
         <v>367</v>
       </c>
       <c r="B123">
@@ -52921,7 +53525,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="543" t="s">
+      <c r="A124" s="1129" t="s">
         <v>368</v>
       </c>
       <c r="B124">
@@ -52998,7 +53602,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="543" t="s">
+      <c r="A125" s="1129" t="s">
         <v>369</v>
       </c>
       <c r="B125">
@@ -53075,7 +53679,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="543" t="s">
+      <c r="A126" s="1129" t="s">
         <v>370</v>
       </c>
       <c r="B126">
@@ -53152,7 +53756,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="543" t="s">
+      <c r="A127" s="1129" t="s">
         <v>371</v>
       </c>
       <c r="B127">
@@ -53229,7 +53833,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="543" t="s">
+      <c r="A128" s="1129" t="s">
         <v>372</v>
       </c>
       <c r="B128">
@@ -53306,7 +53910,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="543" t="s">
+      <c r="A129" s="1129" t="s">
         <v>373</v>
       </c>
       <c r="B129">
@@ -53383,7 +53987,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="543" t="s">
+      <c r="A130" s="1129" t="s">
         <v>374</v>
       </c>
       <c r="B130">
@@ -53460,7 +54064,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="543" t="s">
+      <c r="A131" s="1129" t="s">
         <v>375</v>
       </c>
       <c r="B131">
@@ -53537,7 +54141,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="543" t="s">
+      <c r="A132" s="1129" t="s">
         <v>376</v>
       </c>
       <c r="B132">
@@ -53614,7 +54218,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="543" t="s">
+      <c r="A133" s="1129" t="s">
         <v>377</v>
       </c>
       <c r="B133">
@@ -53691,7 +54295,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="543" t="s">
+      <c r="A134" s="1129" t="s">
         <v>378</v>
       </c>
       <c r="B134">
@@ -53768,7 +54372,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="543" t="s">
+      <c r="A135" s="1129" t="s">
         <v>379</v>
       </c>
       <c r="B135">
@@ -53845,7 +54449,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="543" t="s">
+      <c r="A136" s="1129" t="s">
         <v>380</v>
       </c>
       <c r="B136">
@@ -53922,7 +54526,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="543" t="s">
+      <c r="A137" s="1129" t="s">
         <v>381</v>
       </c>
       <c r="B137">
@@ -53999,7 +54603,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="543" t="s">
+      <c r="A138" s="1129" t="s">
         <v>382</v>
       </c>
       <c r="B138">
@@ -54076,7 +54680,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="543" t="s">
+      <c r="A139" s="1129" t="s">
         <v>383</v>
       </c>
       <c r="B139">
@@ -54153,7 +54757,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="543" t="s">
+      <c r="A140" s="1129" t="s">
         <v>384</v>
       </c>
       <c r="B140">
@@ -54230,7 +54834,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="543" t="s">
+      <c r="A141" s="1129" t="s">
         <v>385</v>
       </c>
       <c r="B141">
@@ -54307,7 +54911,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="543" t="s">
+      <c r="A142" s="1129" t="s">
         <v>386</v>
       </c>
       <c r="B142">
@@ -54384,7 +54988,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="543" t="s">
+      <c r="A143" s="1129" t="s">
         <v>387</v>
       </c>
       <c r="B143">
@@ -54461,7 +55065,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="543" t="s">
+      <c r="A144" s="1129" t="s">
         <v>388</v>
       </c>
       <c r="B144">
@@ -54538,7 +55142,7 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="543" t="s">
+      <c r="A145" s="1129" t="s">
         <v>389</v>
       </c>
       <c r="B145">
@@ -54615,7 +55219,7 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="543" t="s">
+      <c r="A146" s="1129" t="s">
         <v>390</v>
       </c>
       <c r="B146">
@@ -54692,7 +55296,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="543" t="s">
+      <c r="A147" s="1129" t="s">
         <v>391</v>
       </c>
       <c r="B147">
@@ -54769,7 +55373,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="543" t="s">
+      <c r="A148" s="1129" t="s">
         <v>392</v>
       </c>
       <c r="B148">
@@ -54846,7 +55450,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="543" t="s">
+      <c r="A149" s="1129" t="s">
         <v>393</v>
       </c>
       <c r="B149">
@@ -54923,7 +55527,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="543" t="s">
+      <c r="A150" s="1129" t="s">
         <v>394</v>
       </c>
       <c r="B150">
@@ -55000,7 +55604,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="543" t="s">
+      <c r="A151" s="1129" t="s">
         <v>395</v>
       </c>
       <c r="B151">
@@ -55077,7 +55681,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="543" t="s">
+      <c r="A152" s="1129" t="s">
         <v>396</v>
       </c>
       <c r="B152">
@@ -55154,7 +55758,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="543" t="s">
+      <c r="A153" s="1129" t="s">
         <v>397</v>
       </c>
       <c r="B153">
@@ -55231,7 +55835,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="543" t="s">
+      <c r="A154" s="1129" t="s">
         <v>398</v>
       </c>
       <c r="B154">
@@ -55308,7 +55912,7 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="543" t="s">
+      <c r="A155" s="1129" t="s">
         <v>399</v>
       </c>
       <c r="B155">
@@ -55385,7 +55989,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="543" t="s">
+      <c r="A156" s="1129" t="s">
         <v>400</v>
       </c>
       <c r="B156">
@@ -55462,7 +56066,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="543" t="s">
+      <c r="A157" s="1129" t="s">
         <v>401</v>
       </c>
       <c r="B157">
@@ -55539,7 +56143,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="543" t="s">
+      <c r="A158" s="1129" t="s">
         <v>402</v>
       </c>
       <c r="B158">
@@ -55616,7 +56220,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="543" t="s">
+      <c r="A159" s="1129" t="s">
         <v>403</v>
       </c>
       <c r="B159">
@@ -55693,7 +56297,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="543" t="s">
+      <c r="A160" s="1129" t="s">
         <v>404</v>
       </c>
       <c r="B160">
@@ -55770,7 +56374,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="543" t="s">
+      <c r="A161" s="1129" t="s">
         <v>405</v>
       </c>
       <c r="B161">
@@ -55847,7 +56451,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="543" t="s">
+      <c r="A162" s="1129" t="s">
         <v>406</v>
       </c>
       <c r="B162">
@@ -55924,7 +56528,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="543" t="s">
+      <c r="A163" s="1129" t="s">
         <v>407</v>
       </c>
       <c r="B163">
@@ -56001,7 +56605,7 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="543" t="s">
+      <c r="A164" s="1129" t="s">
         <v>408</v>
       </c>
       <c r="B164">
@@ -56078,7 +56682,7 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="543" t="s">
+      <c r="A165" s="1129" t="s">
         <v>409</v>
       </c>
       <c r="B165">
@@ -56155,7 +56759,7 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="543" t="s">
+      <c r="A166" s="1129" t="s">
         <v>410</v>
       </c>
       <c r="B166">
@@ -56232,7 +56836,7 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="543" t="s">
+      <c r="A167" s="1129" t="s">
         <v>411</v>
       </c>
       <c r="B167">
@@ -56309,7 +56913,7 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="543" t="s">
+      <c r="A168" s="1129" t="s">
         <v>412</v>
       </c>
       <c r="B168">
@@ -56386,7 +56990,7 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="543" t="s">
+      <c r="A169" s="1129" t="s">
         <v>413</v>
       </c>
       <c r="B169">
@@ -56463,7 +57067,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="543" t="s">
+      <c r="A170" s="1129" t="s">
         <v>414</v>
       </c>
       <c r="B170">
@@ -56540,7 +57144,7 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="543" t="s">
+      <c r="A171" s="1129" t="s">
         <v>415</v>
       </c>
       <c r="B171">
@@ -56617,7 +57221,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="543" t="s">
+      <c r="A172" s="1129" t="s">
         <v>416</v>
       </c>
       <c r="B172">
@@ -56694,7 +57298,7 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="543" t="s">
+      <c r="A173" s="1129" t="s">
         <v>417</v>
       </c>
       <c r="B173">
@@ -56771,7 +57375,7 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="543" t="s">
+      <c r="A174" s="1129" t="s">
         <v>418</v>
       </c>
       <c r="B174">
@@ -56848,7 +57452,7 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="543" t="s">
+      <c r="A175" s="1129" t="s">
         <v>419</v>
       </c>
       <c r="B175">
@@ -56925,7 +57529,7 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="543" t="s">
+      <c r="A176" s="1129" t="s">
         <v>420</v>
       </c>
       <c r="B176">
@@ -57002,7 +57606,7 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="543" t="s">
+      <c r="A177" s="1129" t="s">
         <v>421</v>
       </c>
       <c r="B177">
@@ -57079,7 +57683,7 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="543" t="s">
+      <c r="A178" s="1129" t="s">
         <v>422</v>
       </c>
       <c r="B178">
@@ -57156,7 +57760,7 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="543" t="s">
+      <c r="A179" s="1129" t="s">
         <v>423</v>
       </c>
       <c r="B179">
@@ -57233,7 +57837,7 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="543" t="s">
+      <c r="A180" s="1129" t="s">
         <v>424</v>
       </c>
       <c r="B180">
@@ -57310,7 +57914,7 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="543" t="s">
+      <c r="A181" s="1129" t="s">
         <v>425</v>
       </c>
       <c r="B181">
@@ -57387,7 +57991,7 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="543" t="s">
+      <c r="A182" s="1129" t="s">
         <v>426</v>
       </c>
       <c r="B182">
@@ -57464,7 +58068,7 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="543" t="s">
+      <c r="A183" s="1129" t="s">
         <v>427</v>
       </c>
       <c r="B183">
@@ -57541,7 +58145,7 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="543" t="s">
+      <c r="A184" s="1129" t="s">
         <v>428</v>
       </c>
       <c r="B184">
@@ -57618,7 +58222,7 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="543" t="s">
+      <c r="A185" s="1129" t="s">
         <v>429</v>
       </c>
       <c r="B185">
@@ -57695,7 +58299,7 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="543" t="s">
+      <c r="A186" s="1129" t="s">
         <v>430</v>
       </c>
       <c r="B186">
@@ -57772,7 +58376,7 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="543" t="s">
+      <c r="A187" s="1129" t="s">
         <v>431</v>
       </c>
       <c r="B187">
@@ -57849,7 +58453,7 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="543" t="s">
+      <c r="A188" s="1129" t="s">
         <v>432</v>
       </c>
       <c r="B188">
@@ -57926,7 +58530,7 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="543" t="s">
+      <c r="A189" s="1129" t="s">
         <v>433</v>
       </c>
       <c r="B189">
@@ -58003,7 +58607,7 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="543" t="s">
+      <c r="A190" s="1129" t="s">
         <v>434</v>
       </c>
       <c r="B190">
@@ -58080,7 +58684,7 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="543" t="s">
+      <c r="A191" s="1129" t="s">
         <v>435</v>
       </c>
       <c r="B191">
@@ -58157,7 +58761,7 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="543" t="s">
+      <c r="A192" s="1129" t="s">
         <v>436</v>
       </c>
       <c r="B192">
@@ -58234,7 +58838,7 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="543" t="s">
+      <c r="A193" s="1129" t="s">
         <v>437</v>
       </c>
       <c r="B193">
@@ -58311,7 +58915,7 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="543" t="s">
+      <c r="A194" s="1129" t="s">
         <v>438</v>
       </c>
       <c r="B194">
@@ -58388,7 +58992,7 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="543" t="s">
+      <c r="A195" s="1129" t="s">
         <v>439</v>
       </c>
       <c r="B195">
@@ -58465,7 +59069,7 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="543" t="s">
+      <c r="A196" s="1129" t="s">
         <v>440</v>
       </c>
       <c r="B196">
@@ -58542,7 +59146,7 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="543" t="s">
+      <c r="A197" s="1129" t="s">
         <v>441</v>
       </c>
       <c r="B197">
@@ -58619,7 +59223,7 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="543" t="s">
+      <c r="A198" s="1129" t="s">
         <v>442</v>
       </c>
       <c r="B198">
@@ -58696,7 +59300,7 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="543" t="s">
+      <c r="A199" s="1129" t="s">
         <v>443</v>
       </c>
       <c r="B199">
@@ -58773,7 +59377,7 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="543" t="s">
+      <c r="A200" s="1129" t="s">
         <v>444</v>
       </c>
       <c r="B200">
@@ -58850,7 +59454,7 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="543" t="s">
+      <c r="A201" s="1129" t="s">
         <v>445</v>
       </c>
       <c r="B201">
@@ -58927,7 +59531,7 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="543" t="s">
+      <c r="A202" s="1129" t="s">
         <v>446</v>
       </c>
       <c r="B202">
@@ -59004,7 +59608,7 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="543" t="s">
+      <c r="A203" s="1129" t="s">
         <v>447</v>
       </c>
       <c r="B203">
@@ -59081,7 +59685,7 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="543" t="s">
+      <c r="A204" s="1129" t="s">
         <v>448</v>
       </c>
       <c r="B204">
@@ -59158,7 +59762,7 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="543" t="s">
+      <c r="A205" s="1129" t="s">
         <v>449</v>
       </c>
       <c r="B205">
@@ -59235,7 +59839,7 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="543" t="s">
+      <c r="A206" s="1129" t="s">
         <v>450</v>
       </c>
       <c r="B206">
@@ -59351,64 +59955,64 @@
       <c r="A1" s="365" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="793" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="799" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="805" t="s">
+      <c r="B1" s="891" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="897" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="903" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="811" t="s">
+      <c r="E1" s="909" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="817" t="s">
+      <c r="F1" s="915" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="823" t="s">
+      <c r="G1" s="921" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="829" t="s">
+      <c r="H1" s="927" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="835" t="s">
+      <c r="I1" s="933" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="841" t="s">
+      <c r="J1" s="939" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="847" t="s">
+      <c r="K1" s="945" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="853" t="s">
+      <c r="L1" s="951" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="859" t="s">
+      <c r="M1" s="957" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="865" t="s">
+      <c r="N1" s="963" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="871" t="s">
+      <c r="O1" s="969" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="877" t="s">
+      <c r="P1" s="975" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="883" t="s">
+      <c r="Q1" s="981" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="703" t="s">
+      <c r="R1" s="987" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="709" t="s">
+      <c r="S1" s="993" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="715" t="s">
+      <c r="T1" s="999" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="721" t="s">
+      <c r="U1" s="1005" t="s">
         <v>19</v>
       </c>
       <c r="V1" s="371" t="s">
@@ -59912,7 +60516,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -59989,7 +60593,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -60208,7 +60812,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -60374,7 +60978,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -60747,7 +61351,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -61440,7 +62044,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -65367,7 +65971,7 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -66842,7 +67446,7 @@
         <v>0</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98">
         <v>1</v>
@@ -66919,7 +67523,7 @@
         <v>0</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99">
         <v>1</v>
@@ -66996,7 +67600,7 @@
         <v>0</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100">
         <v>1</v>
@@ -67073,7 +67677,7 @@
         <v>0</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101">
         <v>1</v>
@@ -67227,7 +67831,7 @@
         <v>0</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103">
         <v>1</v>
@@ -67304,7 +67908,7 @@
         <v>0</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104">
         <v>1</v>
@@ -67381,7 +67985,7 @@
         <v>0</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -67458,7 +68062,7 @@
         <v>0</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106">
         <v>1</v>
@@ -67535,7 +68139,7 @@
         <v>0</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107">
         <v>1</v>
@@ -75172,64 +75776,64 @@
       <c r="A1" s="363" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="795" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="801" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="807" t="s">
+      <c r="B1" s="893" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="899" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="905" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="813" t="s">
+      <c r="E1" s="911" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="819" t="s">
+      <c r="F1" s="917" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="825" t="s">
+      <c r="G1" s="923" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="831" t="s">
+      <c r="H1" s="929" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="837" t="s">
+      <c r="I1" s="935" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="843" t="s">
+      <c r="J1" s="941" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="849" t="s">
+      <c r="K1" s="947" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="855" t="s">
+      <c r="L1" s="953" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="861" t="s">
+      <c r="M1" s="959" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="867" t="s">
+      <c r="N1" s="965" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="873" t="s">
+      <c r="O1" s="971" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="879" t="s">
+      <c r="P1" s="977" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="885" t="s">
+      <c r="Q1" s="983" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="705" t="s">
+      <c r="R1" s="989" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="711" t="s">
+      <c r="S1" s="995" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="717" t="s">
+      <c r="T1" s="1001" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="723" t="s">
+      <c r="U1" s="1007" t="s">
         <v>19</v>
       </c>
       <c r="V1" s="369" t="s">
@@ -90993,64 +91597,64 @@
       <c r="A1" s="361" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="791" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="797" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="803" t="s">
+      <c r="B1" s="889" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="895" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="901" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="809" t="s">
+      <c r="E1" s="907" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="815" t="s">
+      <c r="F1" s="913" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="821" t="s">
+      <c r="G1" s="919" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="827" t="s">
+      <c r="H1" s="925" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="833" t="s">
+      <c r="I1" s="931" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="839" t="s">
+      <c r="J1" s="937" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="845" t="s">
+      <c r="K1" s="943" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="851" t="s">
+      <c r="L1" s="949" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="857" t="s">
+      <c r="M1" s="955" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="863" t="s">
+      <c r="N1" s="961" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="869" t="s">
+      <c r="O1" s="967" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="875" t="s">
+      <c r="P1" s="973" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="881" t="s">
+      <c r="Q1" s="979" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="887" t="s">
+      <c r="R1" s="985" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="707" t="s">
+      <c r="S1" s="991" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="713" t="s">
+      <c r="T1" s="997" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="719" t="s">
+      <c r="U1" s="1003" t="s">
         <v>19</v>
       </c>
       <c r="V1" s="373" t="s">
@@ -106988,54 +107592,54 @@
     <col min="2" max="2" width="5.140625" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
-    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="10.7109375" customWidth="true"/>
     <col min="6" max="6" width="6.5703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="575" t="s">
+      <c r="B2" s="1161" t="s">
         <v>229</v>
       </c>
-      <c r="C2" s="575" t="s">
+      <c r="C2" s="1161" t="s">
         <v>231</v>
       </c>
-      <c r="D2" s="575" t="s">
+      <c r="D2" s="1161" t="s">
         <v>232</v>
       </c>
-      <c r="E2" s="575" t="s">
+      <c r="E2" s="1161" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="575" t="s">
+      <c r="B3" s="1161" t="s">
         <v>225</v>
       </c>
       <c r="C3">
         <v>16</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>20</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="575" t="s">
+      <c r="B4" s="1161" t="s">
         <v>226</v>
       </c>
       <c r="C4">
         <v>40</v>
       </c>
       <c r="D4">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E4">
         <v>47</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="575" t="s">
+      <c r="B5" s="1161" t="s">
         <v>227</v>
       </c>
       <c r="C5">
@@ -107049,52 +107653,52 @@
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="575" t="s">
+      <c r="B6" s="1161" t="s">
         <v>228</v>
       </c>
       <c r="C6">
         <v>20</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>20</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="575" t="s">
+      <c r="B7" s="1161" t="s">
         <v>230</v>
       </c>
       <c r="C7">
         <v>102</v>
       </c>
       <c r="D7">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E7">
         <v>92</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="577" t="s">
+      <c r="B10" s="1163" t="s">
         <v>229</v>
       </c>
-      <c r="C10" s="577" t="s">
+      <c r="C10" s="1163" t="s">
         <v>225</v>
       </c>
-      <c r="D10" s="577" t="s">
+      <c r="D10" s="1163" t="s">
         <v>226</v>
       </c>
-      <c r="E10" s="577" t="s">
+      <c r="E10" s="1163" t="s">
         <v>227</v>
       </c>
-      <c r="F10" s="577" t="s">
+      <c r="F10" s="1163" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="577" t="s">
+      <c r="B11" s="1163" t="s">
         <v>233</v>
       </c>
       <c r="C11">
@@ -107111,71 +107715,71 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="577" t="s">
+      <c r="B12" s="1163" t="s">
         <v>232</v>
       </c>
       <c r="C12">
-        <v>95.121951219512198</v>
+        <v>96.097560975609753</v>
       </c>
       <c r="D12">
-        <v>88.292682926829272</v>
+        <v>89.268292682926827</v>
       </c>
       <c r="E12">
         <v>88.292682926829272</v>
       </c>
       <c r="F12">
-        <v>90.243902439024396</v>
+        <v>92.195121951219519</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="579" t="s">
+      <c r="B14" s="1165" t="s">
         <v>229</v>
       </c>
-      <c r="C14" s="579" t="s">
+      <c r="C14" s="1165" t="s">
         <v>225</v>
       </c>
-      <c r="D14" s="579" t="s">
+      <c r="D14" s="1165" t="s">
         <v>226</v>
       </c>
-      <c r="E14" s="579" t="s">
+      <c r="E14" s="1165" t="s">
         <v>227</v>
       </c>
-      <c r="F14" s="579" t="s">
+      <c r="F14" s="1165" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="579" t="s">
+      <c r="B15" s="1165" t="s">
         <v>233</v>
       </c>
       <c r="C15">
-        <v>98.878048780487802</v>
+        <v>98.910569105691053</v>
       </c>
       <c r="D15">
-        <v>93.873170731707333</v>
+        <v>93.970731707317086</v>
       </c>
       <c r="E15">
-        <v>96.682926829268297</v>
+        <v>96.780487804878049</v>
       </c>
       <c r="F15">
         <v>100</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="579" t="s">
+      <c r="B16" s="1165" t="s">
         <v>232</v>
       </c>
       <c r="C16">
-        <v>99.989148746324702</v>
+        <v>99.984892359461128</v>
       </c>
       <c r="D16">
-        <v>99.941103807753919</v>
+        <v>99.941435337544405</v>
       </c>
       <c r="E16">
-        <v>99.923270262813034</v>
+        <v>99.923138852658568</v>
       </c>
       <c r="F16">
-        <v>99.937596694197296</v>
+        <v>99.94206501458325</v>
       </c>
     </row>
   </sheetData>
@@ -107203,48 +107807,48 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="549" t="s">
+      <c r="A1" s="1135" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="581" t="s">
+      <c r="B1" s="1167" t="s">
         <v>234</v>
       </c>
-      <c r="C1" s="583" t="s">
+      <c r="C1" s="1169" t="s">
         <v>235</v>
       </c>
-      <c r="D1" s="585" t="s">
+      <c r="D1" s="1171" t="s">
         <v>236</v>
       </c>
-      <c r="E1" s="587" t="s">
+      <c r="E1" s="1173" t="s">
         <v>237</v>
       </c>
-      <c r="F1" s="589" t="s">
+      <c r="F1" s="1175" t="s">
         <v>238</v>
       </c>
-      <c r="G1" s="591" t="s">
+      <c r="G1" s="1177" t="s">
         <v>239</v>
       </c>
-      <c r="H1" s="593" t="s">
+      <c r="H1" s="1179" t="s">
         <v>240</v>
       </c>
-      <c r="I1" s="595" t="s">
+      <c r="I1" s="1181" t="s">
         <v>241</v>
       </c>
-      <c r="J1" s="597" t="s">
+      <c r="J1" s="1183" t="s">
         <v>242</v>
       </c>
-      <c r="K1" s="599" t="s">
+      <c r="K1" s="1185" t="s">
         <v>243</v>
       </c>
-      <c r="L1" s="601" t="s">
+      <c r="L1" s="1187" t="s">
         <v>244</v>
       </c>
-      <c r="M1" s="603" t="s">
+      <c r="M1" s="1189" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="549" t="s">
+      <c r="A2" s="1135" t="s">
         <v>246</v>
       </c>
       <c r="B2">
@@ -107285,7 +107889,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="549" t="s">
+      <c r="A3" s="1135" t="s">
         <v>247</v>
       </c>
       <c r="B3">
@@ -107326,7 +107930,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="549" t="s">
+      <c r="A4" s="1135" t="s">
         <v>248</v>
       </c>
       <c r="B4">
@@ -107367,7 +107971,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="549" t="s">
+      <c r="A5" s="1135" t="s">
         <v>249</v>
       </c>
       <c r="B5">
@@ -107377,7 +107981,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -107386,7 +107990,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -107408,7 +108012,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="549" t="s">
+      <c r="A6" s="1135" t="s">
         <v>250</v>
       </c>
       <c r="B6">
@@ -107449,7 +108053,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="549" t="s">
+      <c r="A7" s="1135" t="s">
         <v>251</v>
       </c>
       <c r="B7">
@@ -107490,7 +108094,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="549" t="s">
+      <c r="A8" s="1135" t="s">
         <v>252</v>
       </c>
       <c r="B8">
@@ -107531,7 +108135,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="549" t="s">
+      <c r="A9" s="1135" t="s">
         <v>253</v>
       </c>
       <c r="B9">
@@ -107572,7 +108176,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="549" t="s">
+      <c r="A10" s="1135" t="s">
         <v>254</v>
       </c>
       <c r="B10">
@@ -107613,7 +108217,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="549" t="s">
+      <c r="A11" s="1135" t="s">
         <v>255</v>
       </c>
       <c r="B11">
@@ -107654,7 +108258,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="549" t="s">
+      <c r="A12" s="1135" t="s">
         <v>256</v>
       </c>
       <c r="B12">
@@ -107695,7 +108299,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="549" t="s">
+      <c r="A13" s="1135" t="s">
         <v>257</v>
       </c>
       <c r="B13">
@@ -107705,7 +108309,7 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -107714,7 +108318,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -107736,7 +108340,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="549" t="s">
+      <c r="A14" s="1135" t="s">
         <v>258</v>
       </c>
       <c r="B14">
@@ -107777,7 +108381,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="549" t="s">
+      <c r="A15" s="1135" t="s">
         <v>259</v>
       </c>
       <c r="B15">
@@ -107818,7 +108422,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="549" t="s">
+      <c r="A16" s="1135" t="s">
         <v>260</v>
       </c>
       <c r="B16">
@@ -107859,7 +108463,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="549" t="s">
+      <c r="A17" s="1135" t="s">
         <v>261</v>
       </c>
       <c r="B17">
@@ -107900,7 +108504,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="549" t="s">
+      <c r="A18" s="1135" t="s">
         <v>262</v>
       </c>
       <c r="B18">
@@ -107941,7 +108545,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="549" t="s">
+      <c r="A19" s="1135" t="s">
         <v>263</v>
       </c>
       <c r="B19">
@@ -107982,7 +108586,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="549" t="s">
+      <c r="A20" s="1135" t="s">
         <v>264</v>
       </c>
       <c r="B20">
@@ -108023,7 +108627,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="549" t="s">
+      <c r="A21" s="1135" t="s">
         <v>265</v>
       </c>
       <c r="B21">
@@ -108064,7 +108668,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="549" t="s">
+      <c r="A22" s="1135" t="s">
         <v>266</v>
       </c>
       <c r="B22">
@@ -108105,7 +108709,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="549" t="s">
+      <c r="A23" s="1135" t="s">
         <v>267</v>
       </c>
       <c r="B23">
@@ -108146,7 +108750,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="549" t="s">
+      <c r="A24" s="1135" t="s">
         <v>268</v>
       </c>
       <c r="B24">
@@ -108187,7 +108791,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="549" t="s">
+      <c r="A25" s="1135" t="s">
         <v>269</v>
       </c>
       <c r="B25">
@@ -108228,7 +108832,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="549" t="s">
+      <c r="A26" s="1135" t="s">
         <v>270</v>
       </c>
       <c r="B26">
@@ -108269,7 +108873,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="549" t="s">
+      <c r="A27" s="1135" t="s">
         <v>271</v>
       </c>
       <c r="B27">
@@ -108310,7 +108914,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="549" t="s">
+      <c r="A28" s="1135" t="s">
         <v>272</v>
       </c>
       <c r="B28">
@@ -108351,7 +108955,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="549" t="s">
+      <c r="A29" s="1135" t="s">
         <v>273</v>
       </c>
       <c r="B29">
@@ -108392,7 +108996,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="549" t="s">
+      <c r="A30" s="1135" t="s">
         <v>274</v>
       </c>
       <c r="B30">
@@ -108433,7 +109037,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="549" t="s">
+      <c r="A31" s="1135" t="s">
         <v>275</v>
       </c>
       <c r="B31">
@@ -108474,7 +109078,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="549" t="s">
+      <c r="A32" s="1135" t="s">
         <v>276</v>
       </c>
       <c r="B32">
@@ -108515,7 +109119,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="549" t="s">
+      <c r="A33" s="1135" t="s">
         <v>277</v>
       </c>
       <c r="B33">
@@ -108556,7 +109160,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="549" t="s">
+      <c r="A34" s="1135" t="s">
         <v>278</v>
       </c>
       <c r="B34">
@@ -108597,7 +109201,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="549" t="s">
+      <c r="A35" s="1135" t="s">
         <v>279</v>
       </c>
       <c r="B35">
@@ -108638,7 +109242,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="549" t="s">
+      <c r="A36" s="1135" t="s">
         <v>280</v>
       </c>
       <c r="B36">
@@ -108679,7 +109283,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="549" t="s">
+      <c r="A37" s="1135" t="s">
         <v>281</v>
       </c>
       <c r="B37">
@@ -108720,7 +109324,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="549" t="s">
+      <c r="A38" s="1135" t="s">
         <v>282</v>
       </c>
       <c r="B38">
@@ -108761,7 +109365,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="549" t="s">
+      <c r="A39" s="1135" t="s">
         <v>283</v>
       </c>
       <c r="B39">
@@ -108802,7 +109406,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="549" t="s">
+      <c r="A40" s="1135" t="s">
         <v>284</v>
       </c>
       <c r="B40">
@@ -108843,7 +109447,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="549" t="s">
+      <c r="A41" s="1135" t="s">
         <v>285</v>
       </c>
       <c r="B41">
@@ -108884,7 +109488,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="549" t="s">
+      <c r="A42" s="1135" t="s">
         <v>286</v>
       </c>
       <c r="B42">
@@ -108925,7 +109529,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="549" t="s">
+      <c r="A43" s="1135" t="s">
         <v>287</v>
       </c>
       <c r="B43">
@@ -108966,7 +109570,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="549" t="s">
+      <c r="A44" s="1135" t="s">
         <v>288</v>
       </c>
       <c r="B44">
@@ -109007,7 +109611,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="549" t="s">
+      <c r="A45" s="1135" t="s">
         <v>289</v>
       </c>
       <c r="B45">
@@ -109048,7 +109652,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="549" t="s">
+      <c r="A46" s="1135" t="s">
         <v>290</v>
       </c>
       <c r="B46">
@@ -109089,7 +109693,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="549" t="s">
+      <c r="A47" s="1135" t="s">
         <v>291</v>
       </c>
       <c r="B47">
@@ -109130,7 +109734,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="549" t="s">
+      <c r="A48" s="1135" t="s">
         <v>292</v>
       </c>
       <c r="B48">
@@ -109171,7 +109775,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="549" t="s">
+      <c r="A49" s="1135" t="s">
         <v>293</v>
       </c>
       <c r="B49">
@@ -109212,7 +109816,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="549" t="s">
+      <c r="A50" s="1135" t="s">
         <v>294</v>
       </c>
       <c r="B50">
@@ -109253,7 +109857,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="549" t="s">
+      <c r="A51" s="1135" t="s">
         <v>295</v>
       </c>
       <c r="B51">
@@ -109294,7 +109898,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="549" t="s">
+      <c r="A52" s="1135" t="s">
         <v>296</v>
       </c>
       <c r="B52">
@@ -109335,7 +109939,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="549" t="s">
+      <c r="A53" s="1135" t="s">
         <v>297</v>
       </c>
       <c r="B53">
@@ -109376,7 +109980,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="549" t="s">
+      <c r="A54" s="1135" t="s">
         <v>298</v>
       </c>
       <c r="B54">
@@ -109417,7 +110021,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="549" t="s">
+      <c r="A55" s="1135" t="s">
         <v>299</v>
       </c>
       <c r="B55">
@@ -109458,7 +110062,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="549" t="s">
+      <c r="A56" s="1135" t="s">
         <v>300</v>
       </c>
       <c r="B56">
@@ -109499,7 +110103,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="549" t="s">
+      <c r="A57" s="1135" t="s">
         <v>301</v>
       </c>
       <c r="B57">
@@ -109540,7 +110144,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="549" t="s">
+      <c r="A58" s="1135" t="s">
         <v>302</v>
       </c>
       <c r="B58">
@@ -109581,7 +110185,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="549" t="s">
+      <c r="A59" s="1135" t="s">
         <v>303</v>
       </c>
       <c r="B59">
@@ -109622,7 +110226,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="549" t="s">
+      <c r="A60" s="1135" t="s">
         <v>304</v>
       </c>
       <c r="B60">
@@ -109663,7 +110267,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="549" t="s">
+      <c r="A61" s="1135" t="s">
         <v>305</v>
       </c>
       <c r="B61">
@@ -109704,7 +110308,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="549" t="s">
+      <c r="A62" s="1135" t="s">
         <v>306</v>
       </c>
       <c r="B62">
@@ -109745,7 +110349,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="549" t="s">
+      <c r="A63" s="1135" t="s">
         <v>307</v>
       </c>
       <c r="B63">
@@ -109786,7 +110390,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="549" t="s">
+      <c r="A64" s="1135" t="s">
         <v>308</v>
       </c>
       <c r="B64">
@@ -109827,7 +110431,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="549" t="s">
+      <c r="A65" s="1135" t="s">
         <v>309</v>
       </c>
       <c r="B65">
@@ -109868,7 +110472,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="549" t="s">
+      <c r="A66" s="1135" t="s">
         <v>310</v>
       </c>
       <c r="B66">
@@ -109909,7 +110513,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="549" t="s">
+      <c r="A67" s="1135" t="s">
         <v>311</v>
       </c>
       <c r="B67">
@@ -109950,7 +110554,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="549" t="s">
+      <c r="A68" s="1135" t="s">
         <v>312</v>
       </c>
       <c r="B68">
@@ -109991,7 +110595,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="549" t="s">
+      <c r="A69" s="1135" t="s">
         <v>313</v>
       </c>
       <c r="B69">
@@ -110032,7 +110636,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="549" t="s">
+      <c r="A70" s="1135" t="s">
         <v>314</v>
       </c>
       <c r="B70">
@@ -110073,7 +110677,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="549" t="s">
+      <c r="A71" s="1135" t="s">
         <v>315</v>
       </c>
       <c r="B71">
@@ -110114,7 +110718,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="549" t="s">
+      <c r="A72" s="1135" t="s">
         <v>316</v>
       </c>
       <c r="B72">
@@ -110155,7 +110759,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="549" t="s">
+      <c r="A73" s="1135" t="s">
         <v>317</v>
       </c>
       <c r="B73">
@@ -110196,7 +110800,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="549" t="s">
+      <c r="A74" s="1135" t="s">
         <v>318</v>
       </c>
       <c r="B74">
@@ -110237,7 +110841,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="549" t="s">
+      <c r="A75" s="1135" t="s">
         <v>319</v>
       </c>
       <c r="B75">
@@ -110278,7 +110882,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="549" t="s">
+      <c r="A76" s="1135" t="s">
         <v>320</v>
       </c>
       <c r="B76">
@@ -110319,7 +110923,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="549" t="s">
+      <c r="A77" s="1135" t="s">
         <v>321</v>
       </c>
       <c r="B77">
@@ -110360,7 +110964,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="549" t="s">
+      <c r="A78" s="1135" t="s">
         <v>322</v>
       </c>
       <c r="B78">
@@ -110401,7 +111005,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="549" t="s">
+      <c r="A79" s="1135" t="s">
         <v>323</v>
       </c>
       <c r="B79">
@@ -110442,7 +111046,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="549" t="s">
+      <c r="A80" s="1135" t="s">
         <v>324</v>
       </c>
       <c r="B80">
@@ -110483,7 +111087,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="549" t="s">
+      <c r="A81" s="1135" t="s">
         <v>325</v>
       </c>
       <c r="B81">
@@ -110524,7 +111128,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="549" t="s">
+      <c r="A82" s="1135" t="s">
         <v>326</v>
       </c>
       <c r="B82">
@@ -110565,7 +111169,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="549" t="s">
+      <c r="A83" s="1135" t="s">
         <v>327</v>
       </c>
       <c r="B83">
@@ -110606,7 +111210,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="549" t="s">
+      <c r="A84" s="1135" t="s">
         <v>328</v>
       </c>
       <c r="B84">
@@ -110647,7 +111251,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="549" t="s">
+      <c r="A85" s="1135" t="s">
         <v>329</v>
       </c>
       <c r="B85">
@@ -110688,7 +111292,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="549" t="s">
+      <c r="A86" s="1135" t="s">
         <v>330</v>
       </c>
       <c r="B86">
@@ -110729,7 +111333,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="549" t="s">
+      <c r="A87" s="1135" t="s">
         <v>331</v>
       </c>
       <c r="B87">
@@ -110770,7 +111374,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="549" t="s">
+      <c r="A88" s="1135" t="s">
         <v>332</v>
       </c>
       <c r="B88">
@@ -110811,7 +111415,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="549" t="s">
+      <c r="A89" s="1135" t="s">
         <v>333</v>
       </c>
       <c r="B89">
@@ -110852,7 +111456,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="549" t="s">
+      <c r="A90" s="1135" t="s">
         <v>334</v>
       </c>
       <c r="B90">
@@ -110893,7 +111497,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="549" t="s">
+      <c r="A91" s="1135" t="s">
         <v>335</v>
       </c>
       <c r="B91">
@@ -110934,7 +111538,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="549" t="s">
+      <c r="A92" s="1135" t="s">
         <v>336</v>
       </c>
       <c r="B92">
@@ -110975,7 +111579,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="549" t="s">
+      <c r="A93" s="1135" t="s">
         <v>337</v>
       </c>
       <c r="B93">
@@ -111016,7 +111620,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="549" t="s">
+      <c r="A94" s="1135" t="s">
         <v>338</v>
       </c>
       <c r="B94">
@@ -111057,7 +111661,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="549" t="s">
+      <c r="A95" s="1135" t="s">
         <v>339</v>
       </c>
       <c r="B95">
@@ -111098,7 +111702,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="549" t="s">
+      <c r="A96" s="1135" t="s">
         <v>340</v>
       </c>
       <c r="B96">
@@ -111139,7 +111743,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="549" t="s">
+      <c r="A97" s="1135" t="s">
         <v>341</v>
       </c>
       <c r="B97">
@@ -111180,7 +111784,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="549" t="s">
+      <c r="A98" s="1135" t="s">
         <v>342</v>
       </c>
       <c r="B98">
@@ -111221,7 +111825,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="549" t="s">
+      <c r="A99" s="1135" t="s">
         <v>343</v>
       </c>
       <c r="B99">
@@ -111262,7 +111866,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="549" t="s">
+      <c r="A100" s="1135" t="s">
         <v>344</v>
       </c>
       <c r="B100">
@@ -111303,7 +111907,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="549" t="s">
+      <c r="A101" s="1135" t="s">
         <v>345</v>
       </c>
       <c r="B101">
@@ -111344,7 +111948,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="549" t="s">
+      <c r="A102" s="1135" t="s">
         <v>346</v>
       </c>
       <c r="B102">
@@ -111385,7 +111989,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="549" t="s">
+      <c r="A103" s="1135" t="s">
         <v>347</v>
       </c>
       <c r="B103">
@@ -111426,7 +112030,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="549" t="s">
+      <c r="A104" s="1135" t="s">
         <v>348</v>
       </c>
       <c r="B104">
@@ -111467,7 +112071,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="549" t="s">
+      <c r="A105" s="1135" t="s">
         <v>349</v>
       </c>
       <c r="B105">
@@ -111508,7 +112112,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="549" t="s">
+      <c r="A106" s="1135" t="s">
         <v>350</v>
       </c>
       <c r="B106">
@@ -111549,7 +112153,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="549" t="s">
+      <c r="A107" s="1135" t="s">
         <v>351</v>
       </c>
       <c r="B107">
@@ -111590,7 +112194,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="549" t="s">
+      <c r="A108" s="1135" t="s">
         <v>352</v>
       </c>
       <c r="B108">
@@ -111631,7 +112235,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="549" t="s">
+      <c r="A109" s="1135" t="s">
         <v>353</v>
       </c>
       <c r="B109">
@@ -111672,7 +112276,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="549" t="s">
+      <c r="A110" s="1135" t="s">
         <v>354</v>
       </c>
       <c r="B110">
@@ -111713,7 +112317,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="549" t="s">
+      <c r="A111" s="1135" t="s">
         <v>355</v>
       </c>
       <c r="B111">
@@ -111754,7 +112358,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="549" t="s">
+      <c r="A112" s="1135" t="s">
         <v>356</v>
       </c>
       <c r="B112">
@@ -111795,7 +112399,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="549" t="s">
+      <c r="A113" s="1135" t="s">
         <v>357</v>
       </c>
       <c r="B113">
@@ -111836,7 +112440,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="549" t="s">
+      <c r="A114" s="1135" t="s">
         <v>358</v>
       </c>
       <c r="B114">
@@ -111877,7 +112481,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="549" t="s">
+      <c r="A115" s="1135" t="s">
         <v>359</v>
       </c>
       <c r="B115">
@@ -111914,11 +112518,11 @@
         <v>1</v>
       </c>
       <c r="M115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="549" t="s">
+      <c r="A116" s="1135" t="s">
         <v>360</v>
       </c>
       <c r="B116">
@@ -111959,7 +112563,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="549" t="s">
+      <c r="A117" s="1135" t="s">
         <v>361</v>
       </c>
       <c r="B117">
@@ -112000,7 +112604,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="549" t="s">
+      <c r="A118" s="1135" t="s">
         <v>362</v>
       </c>
       <c r="B118">
@@ -112041,7 +112645,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="549" t="s">
+      <c r="A119" s="1135" t="s">
         <v>363</v>
       </c>
       <c r="B119">
@@ -112082,7 +112686,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="549" t="s">
+      <c r="A120" s="1135" t="s">
         <v>364</v>
       </c>
       <c r="B120">
@@ -112123,7 +112727,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="549" t="s">
+      <c r="A121" s="1135" t="s">
         <v>365</v>
       </c>
       <c r="B121">
@@ -112164,7 +112768,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="549" t="s">
+      <c r="A122" s="1135" t="s">
         <v>366</v>
       </c>
       <c r="B122">
@@ -112205,7 +112809,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="549" t="s">
+      <c r="A123" s="1135" t="s">
         <v>367</v>
       </c>
       <c r="B123">
@@ -112246,7 +112850,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="549" t="s">
+      <c r="A124" s="1135" t="s">
         <v>368</v>
       </c>
       <c r="B124">
@@ -112287,7 +112891,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="549" t="s">
+      <c r="A125" s="1135" t="s">
         <v>369</v>
       </c>
       <c r="B125">
@@ -112328,7 +112932,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="549" t="s">
+      <c r="A126" s="1135" t="s">
         <v>370</v>
       </c>
       <c r="B126">
@@ -112369,7 +112973,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="549" t="s">
+      <c r="A127" s="1135" t="s">
         <v>371</v>
       </c>
       <c r="B127">
@@ -112410,7 +113014,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="549" t="s">
+      <c r="A128" s="1135" t="s">
         <v>372</v>
       </c>
       <c r="B128">
@@ -112451,7 +113055,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="549" t="s">
+      <c r="A129" s="1135" t="s">
         <v>373</v>
       </c>
       <c r="B129">
@@ -112492,7 +113096,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="549" t="s">
+      <c r="A130" s="1135" t="s">
         <v>374</v>
       </c>
       <c r="B130">
@@ -112533,7 +113137,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="549" t="s">
+      <c r="A131" s="1135" t="s">
         <v>375</v>
       </c>
       <c r="B131">
@@ -112574,7 +113178,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="549" t="s">
+      <c r="A132" s="1135" t="s">
         <v>376</v>
       </c>
       <c r="B132">
@@ -112615,7 +113219,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="549" t="s">
+      <c r="A133" s="1135" t="s">
         <v>377</v>
       </c>
       <c r="B133">
@@ -112656,7 +113260,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="549" t="s">
+      <c r="A134" s="1135" t="s">
         <v>378</v>
       </c>
       <c r="B134">
@@ -112697,7 +113301,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="549" t="s">
+      <c r="A135" s="1135" t="s">
         <v>379</v>
       </c>
       <c r="B135">
@@ -112738,7 +113342,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="549" t="s">
+      <c r="A136" s="1135" t="s">
         <v>380</v>
       </c>
       <c r="B136">
@@ -112779,7 +113383,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="549" t="s">
+      <c r="A137" s="1135" t="s">
         <v>381</v>
       </c>
       <c r="B137">
@@ -112820,7 +113424,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="549" t="s">
+      <c r="A138" s="1135" t="s">
         <v>382</v>
       </c>
       <c r="B138">
@@ -112861,7 +113465,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="549" t="s">
+      <c r="A139" s="1135" t="s">
         <v>383</v>
       </c>
       <c r="B139">
@@ -112902,7 +113506,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="549" t="s">
+      <c r="A140" s="1135" t="s">
         <v>384</v>
       </c>
       <c r="B140">
@@ -112943,7 +113547,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="549" t="s">
+      <c r="A141" s="1135" t="s">
         <v>385</v>
       </c>
       <c r="B141">
@@ -112984,7 +113588,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="549" t="s">
+      <c r="A142" s="1135" t="s">
         <v>386</v>
       </c>
       <c r="B142">
@@ -113021,11 +113625,11 @@
         <v>1</v>
       </c>
       <c r="M142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="549" t="s">
+      <c r="A143" s="1135" t="s">
         <v>387</v>
       </c>
       <c r="B143">
@@ -113066,7 +113670,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="549" t="s">
+      <c r="A144" s="1135" t="s">
         <v>388</v>
       </c>
       <c r="B144">
@@ -113103,11 +113707,11 @@
         <v>1</v>
       </c>
       <c r="M144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="549" t="s">
+      <c r="A145" s="1135" t="s">
         <v>389</v>
       </c>
       <c r="B145">
@@ -113144,11 +113748,11 @@
         <v>1</v>
       </c>
       <c r="M145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="549" t="s">
+      <c r="A146" s="1135" t="s">
         <v>390</v>
       </c>
       <c r="B146">
@@ -113189,7 +113793,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="549" t="s">
+      <c r="A147" s="1135" t="s">
         <v>391</v>
       </c>
       <c r="B147">
@@ -113230,7 +113834,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="549" t="s">
+      <c r="A148" s="1135" t="s">
         <v>392</v>
       </c>
       <c r="B148">
@@ -113271,7 +113875,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="549" t="s">
+      <c r="A149" s="1135" t="s">
         <v>393</v>
       </c>
       <c r="B149">
@@ -113312,7 +113916,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="549" t="s">
+      <c r="A150" s="1135" t="s">
         <v>394</v>
       </c>
       <c r="B150">
@@ -113322,7 +113926,7 @@
         <v>1</v>
       </c>
       <c r="D150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -113331,7 +113935,7 @@
         <v>0</v>
       </c>
       <c r="G150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -113353,7 +113957,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="549" t="s">
+      <c r="A151" s="1135" t="s">
         <v>395</v>
       </c>
       <c r="B151">
@@ -113394,7 +113998,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="549" t="s">
+      <c r="A152" s="1135" t="s">
         <v>396</v>
       </c>
       <c r="B152">
@@ -113435,7 +114039,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="549" t="s">
+      <c r="A153" s="1135" t="s">
         <v>397</v>
       </c>
       <c r="B153">
@@ -113476,7 +114080,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="549" t="s">
+      <c r="A154" s="1135" t="s">
         <v>398</v>
       </c>
       <c r="B154">
@@ -113517,7 +114121,7 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="549" t="s">
+      <c r="A155" s="1135" t="s">
         <v>399</v>
       </c>
       <c r="B155">
@@ -113558,7 +114162,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="549" t="s">
+      <c r="A156" s="1135" t="s">
         <v>400</v>
       </c>
       <c r="B156">
@@ -113599,7 +114203,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="549" t="s">
+      <c r="A157" s="1135" t="s">
         <v>401</v>
       </c>
       <c r="B157">
@@ -113640,7 +114244,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="549" t="s">
+      <c r="A158" s="1135" t="s">
         <v>402</v>
       </c>
       <c r="B158">
@@ -113681,7 +114285,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="549" t="s">
+      <c r="A159" s="1135" t="s">
         <v>403</v>
       </c>
       <c r="B159">
@@ -113722,7 +114326,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="549" t="s">
+      <c r="A160" s="1135" t="s">
         <v>404</v>
       </c>
       <c r="B160">
@@ -113763,7 +114367,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="549" t="s">
+      <c r="A161" s="1135" t="s">
         <v>405</v>
       </c>
       <c r="B161">
@@ -113804,7 +114408,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="549" t="s">
+      <c r="A162" s="1135" t="s">
         <v>406</v>
       </c>
       <c r="B162">
@@ -113845,7 +114449,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="549" t="s">
+      <c r="A163" s="1135" t="s">
         <v>407</v>
       </c>
       <c r="B163">
@@ -113886,7 +114490,7 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="549" t="s">
+      <c r="A164" s="1135" t="s">
         <v>408</v>
       </c>
       <c r="B164">
@@ -113927,7 +114531,7 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="549" t="s">
+      <c r="A165" s="1135" t="s">
         <v>409</v>
       </c>
       <c r="B165">
@@ -113968,7 +114572,7 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="549" t="s">
+      <c r="A166" s="1135" t="s">
         <v>410</v>
       </c>
       <c r="B166">
@@ -114009,7 +114613,7 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="549" t="s">
+      <c r="A167" s="1135" t="s">
         <v>411</v>
       </c>
       <c r="B167">
@@ -114050,7 +114654,7 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="549" t="s">
+      <c r="A168" s="1135" t="s">
         <v>412</v>
       </c>
       <c r="B168">
@@ -114091,7 +114695,7 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="549" t="s">
+      <c r="A169" s="1135" t="s">
         <v>413</v>
       </c>
       <c r="B169">
@@ -114132,7 +114736,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="549" t="s">
+      <c r="A170" s="1135" t="s">
         <v>414</v>
       </c>
       <c r="B170">
@@ -114173,7 +114777,7 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="549" t="s">
+      <c r="A171" s="1135" t="s">
         <v>415</v>
       </c>
       <c r="B171">
@@ -114214,7 +114818,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="549" t="s">
+      <c r="A172" s="1135" t="s">
         <v>416</v>
       </c>
       <c r="B172">
@@ -114255,7 +114859,7 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="549" t="s">
+      <c r="A173" s="1135" t="s">
         <v>417</v>
       </c>
       <c r="B173">
@@ -114296,7 +114900,7 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="549" t="s">
+      <c r="A174" s="1135" t="s">
         <v>418</v>
       </c>
       <c r="B174">
@@ -114337,7 +114941,7 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="549" t="s">
+      <c r="A175" s="1135" t="s">
         <v>419</v>
       </c>
       <c r="B175">
@@ -114378,7 +114982,7 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="549" t="s">
+      <c r="A176" s="1135" t="s">
         <v>420</v>
       </c>
       <c r="B176">
@@ -114419,7 +115023,7 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="549" t="s">
+      <c r="A177" s="1135" t="s">
         <v>421</v>
       </c>
       <c r="B177">
@@ -114460,7 +115064,7 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="549" t="s">
+      <c r="A178" s="1135" t="s">
         <v>422</v>
       </c>
       <c r="B178">
@@ -114501,7 +115105,7 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="549" t="s">
+      <c r="A179" s="1135" t="s">
         <v>423</v>
       </c>
       <c r="B179">
@@ -114542,7 +115146,7 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="549" t="s">
+      <c r="A180" s="1135" t="s">
         <v>424</v>
       </c>
       <c r="B180">
@@ -114583,7 +115187,7 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="549" t="s">
+      <c r="A181" s="1135" t="s">
         <v>425</v>
       </c>
       <c r="B181">
@@ -114624,7 +115228,7 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="549" t="s">
+      <c r="A182" s="1135" t="s">
         <v>426</v>
       </c>
       <c r="B182">
@@ -114665,7 +115269,7 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="549" t="s">
+      <c r="A183" s="1135" t="s">
         <v>427</v>
       </c>
       <c r="B183">
@@ -114706,7 +115310,7 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="549" t="s">
+      <c r="A184" s="1135" t="s">
         <v>428</v>
       </c>
       <c r="B184">
@@ -114747,7 +115351,7 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="549" t="s">
+      <c r="A185" s="1135" t="s">
         <v>429</v>
       </c>
       <c r="B185">
@@ -114788,7 +115392,7 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="549" t="s">
+      <c r="A186" s="1135" t="s">
         <v>430</v>
       </c>
       <c r="B186">
@@ -114829,7 +115433,7 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="549" t="s">
+      <c r="A187" s="1135" t="s">
         <v>431</v>
       </c>
       <c r="B187">
@@ -114839,7 +115443,7 @@
         <v>1</v>
       </c>
       <c r="D187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E187">
         <v>1</v>
@@ -114848,7 +115452,7 @@
         <v>0</v>
       </c>
       <c r="G187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H187">
         <v>0</v>
@@ -114870,7 +115474,7 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="549" t="s">
+      <c r="A188" s="1135" t="s">
         <v>432</v>
       </c>
       <c r="B188">
@@ -114911,7 +115515,7 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="549" t="s">
+      <c r="A189" s="1135" t="s">
         <v>433</v>
       </c>
       <c r="B189">
@@ -114952,7 +115556,7 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="549" t="s">
+      <c r="A190" s="1135" t="s">
         <v>434</v>
       </c>
       <c r="B190">
@@ -114993,7 +115597,7 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="549" t="s">
+      <c r="A191" s="1135" t="s">
         <v>435</v>
       </c>
       <c r="B191">
@@ -115034,7 +115638,7 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="549" t="s">
+      <c r="A192" s="1135" t="s">
         <v>436</v>
       </c>
       <c r="B192">
@@ -115075,7 +115679,7 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="549" t="s">
+      <c r="A193" s="1135" t="s">
         <v>437</v>
       </c>
       <c r="B193">
@@ -115116,7 +115720,7 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="549" t="s">
+      <c r="A194" s="1135" t="s">
         <v>438</v>
       </c>
       <c r="B194">
@@ -115157,7 +115761,7 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="549" t="s">
+      <c r="A195" s="1135" t="s">
         <v>439</v>
       </c>
       <c r="B195">
@@ -115198,7 +115802,7 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="549" t="s">
+      <c r="A196" s="1135" t="s">
         <v>440</v>
       </c>
       <c r="B196">
@@ -115239,7 +115843,7 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="549" t="s">
+      <c r="A197" s="1135" t="s">
         <v>441</v>
       </c>
       <c r="B197">
@@ -115280,7 +115884,7 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="549" t="s">
+      <c r="A198" s="1135" t="s">
         <v>442</v>
       </c>
       <c r="B198">
@@ -115321,7 +115925,7 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="549" t="s">
+      <c r="A199" s="1135" t="s">
         <v>443</v>
       </c>
       <c r="B199">
@@ -115362,7 +115966,7 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="549" t="s">
+      <c r="A200" s="1135" t="s">
         <v>444</v>
       </c>
       <c r="B200">
@@ -115403,7 +116007,7 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="549" t="s">
+      <c r="A201" s="1135" t="s">
         <v>445</v>
       </c>
       <c r="B201">
@@ -115444,7 +116048,7 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="549" t="s">
+      <c r="A202" s="1135" t="s">
         <v>446</v>
       </c>
       <c r="B202">
@@ -115485,7 +116089,7 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="549" t="s">
+      <c r="A203" s="1135" t="s">
         <v>447</v>
       </c>
       <c r="B203">
@@ -115526,7 +116130,7 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="549" t="s">
+      <c r="A204" s="1135" t="s">
         <v>448</v>
       </c>
       <c r="B204">
@@ -115567,7 +116171,7 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="549" t="s">
+      <c r="A205" s="1135" t="s">
         <v>449</v>
       </c>
       <c r="B205">
@@ -115608,7 +116212,7 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="549" t="s">
+      <c r="A206" s="1135" t="s">
         <v>450</v>
       </c>
       <c r="B206">
@@ -115618,7 +116222,7 @@
         <v>9.7560975609756095</v>
       </c>
       <c r="D206">
-        <v>6.8292682926829276</v>
+        <v>8.7804878048780477</v>
       </c>
       <c r="E206">
         <v>19.512195121951219</v>
@@ -115627,7 +116231,7 @@
         <v>22.926829268292686</v>
       </c>
       <c r="G206">
-        <v>27.31707317073171</v>
+        <v>25.365853658536587</v>
       </c>
       <c r="H206">
         <v>13.170731707317074</v>
@@ -115645,7 +116249,7 @@
         <v>9.7560975609756095</v>
       </c>
       <c r="M206">
-        <v>9.7560975609756095</v>
+        <v>7.8048780487804876</v>
       </c>
     </row>
   </sheetData>
